--- a/UI_design/open_clock_menu_examples.xlsx
+++ b/UI_design/open_clock_menu_examples.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="2440" windowWidth="25600" windowHeight="12880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb26" sheetId="1" r:id="rId1"/>
+    <sheet name="Mar3" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$BU$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Feb26'!$A$2:$BU$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Mar3'!$A$2:$AO$81</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="72">
   <si>
     <t>A</t>
   </si>
@@ -476,6 +478,59 @@
   <si>
     <t>open clock menu examples 2013.02.26</t>
   </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> tap &gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> tap screen</t>
+    </r>
+  </si>
+  <si>
+    <t>change code for this new menu scheme</t>
+  </si>
+  <si>
+    <t>change display/render scheme to allow for non-digits in hr/min area</t>
+  </si>
 </sst>
 </file>
 
@@ -680,7 +735,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="289">
+  <cellStyleXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -970,8 +1025,94 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1060,26 +1201,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1108,37 +1240,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,10 +1282,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,17 +1327,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="289">
+  <cellStyles count="375">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1320,6 +1488,49 @@
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1464,6 +1675,49 @@
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1798,7 +2052,7 @@
   </sheetPr>
   <dimension ref="B2:BT77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1889,86 +2143,86 @@
       <c r="BT2" s="4"/>
     </row>
     <row r="3" spans="2:72">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="K3" s="31" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="T3" s="31" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="T3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AC3" s="31" t="s">
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AC3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AL3" s="31" t="s">
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AL3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AU3" s="31" t="s">
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AU3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BD3" s="31" t="s">
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35"/>
+      <c r="BD3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BM3" s="31" t="s">
+      <c r="BE3" s="35"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35"/>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="35"/>
+      <c r="BM3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="31"/>
+      <c r="BN3" s="35"/>
+      <c r="BO3" s="35"/>
+      <c r="BP3" s="35"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="35"/>
+      <c r="BT3" s="35"/>
     </row>
     <row r="4" spans="2:72">
       <c r="B4" s="2"/>
@@ -2037,282 +2291,282 @@
       <c r="BT4" s="2"/>
     </row>
     <row r="5" spans="2:72" ht="15" customHeight="1">
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="44">
+      <c r="E5" s="37"/>
+      <c r="F5" s="41">
         <v>4</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41">
         <v>4</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="43" t="s">
+      <c r="I5" s="43"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="32">
+      <c r="N5" s="37"/>
+      <c r="O5" s="50">
         <v>2</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32">
-        <v>0</v>
-      </c>
-      <c r="R5" s="33"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50">
+        <v>0</v>
+      </c>
+      <c r="R5" s="52"/>
       <c r="S5" s="26"/>
-      <c r="T5" s="39">
+      <c r="T5" s="36">
         <v>1</v>
       </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="43" t="s">
+      <c r="U5" s="37"/>
+      <c r="V5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="40"/>
-      <c r="X5" s="44">
+      <c r="W5" s="37"/>
+      <c r="X5" s="41">
         <v>4</v>
       </c>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44">
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41">
         <v>4</v>
       </c>
-      <c r="AA5" s="46"/>
+      <c r="AA5" s="43"/>
       <c r="AB5" s="26"/>
-      <c r="AC5" s="39">
+      <c r="AC5" s="36">
         <v>1</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="43" t="s">
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="44">
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="41">
         <v>4</v>
       </c>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44">
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41">
         <v>4</v>
       </c>
-      <c r="AJ5" s="46"/>
+      <c r="AJ5" s="43"/>
       <c r="AK5" s="26"/>
-      <c r="AL5" s="39">
+      <c r="AL5" s="36">
         <v>1</v>
       </c>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="43" t="s">
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="44">
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="41">
         <v>4</v>
       </c>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44">
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41">
         <v>4</v>
       </c>
-      <c r="AS5" s="46"/>
+      <c r="AS5" s="43"/>
       <c r="AT5" s="26"/>
-      <c r="AU5" s="39">
+      <c r="AU5" s="36">
         <v>1</v>
       </c>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="43" t="s">
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="44">
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="41">
         <v>4</v>
       </c>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44">
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41">
         <v>4</v>
       </c>
-      <c r="BB5" s="46"/>
+      <c r="BB5" s="43"/>
       <c r="BC5" s="26"/>
-      <c r="BD5" s="39">
+      <c r="BD5" s="36">
         <v>1</v>
       </c>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="43" t="s">
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BG5" s="40"/>
-      <c r="BH5" s="44">
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="41">
         <v>4</v>
       </c>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44">
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41">
         <v>4</v>
       </c>
-      <c r="BK5" s="46"/>
+      <c r="BK5" s="43"/>
       <c r="BL5" s="26"/>
-      <c r="BM5" s="39">
+      <c r="BM5" s="36">
         <v>1</v>
       </c>
-      <c r="BN5" s="40"/>
-      <c r="BO5" s="43" t="s">
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BP5" s="40"/>
-      <c r="BQ5" s="44">
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="41">
         <v>4</v>
       </c>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="44">
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41">
         <v>4</v>
       </c>
-      <c r="BT5" s="46"/>
+      <c r="BT5" s="43"/>
     </row>
     <row r="6" spans="2:72" ht="15" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="47"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="26"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="47"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="44"/>
       <c r="AB6" s="26"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="47"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="44"/>
       <c r="AK6" s="26"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="47"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="44"/>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="47"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="44"/>
       <c r="BC6" s="26"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="47"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="42"/>
+      <c r="BJ6" s="42"/>
+      <c r="BK6" s="44"/>
       <c r="BL6" s="26"/>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="42"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="42"/>
-      <c r="BQ6" s="45"/>
-      <c r="BR6" s="45"/>
-      <c r="BS6" s="45"/>
-      <c r="BT6" s="47"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
+      <c r="BQ6" s="42"/>
+      <c r="BR6" s="42"/>
+      <c r="BS6" s="42"/>
+      <c r="BT6" s="44"/>
     </row>
     <row r="7" spans="2:72" ht="15" customHeight="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="47"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="44"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="53"/>
       <c r="S7" s="26"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="47"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="44"/>
       <c r="AB7" s="26"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="47"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="44"/>
       <c r="AK7" s="26"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="47"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="44"/>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="47"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="44"/>
       <c r="BC7" s="26"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="47"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="44"/>
       <c r="BL7" s="26"/>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="42"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="45"/>
-      <c r="BS7" s="45"/>
-      <c r="BT7" s="47"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="42"/>
+      <c r="BS7" s="42"/>
+      <c r="BT7" s="44"/>
     </row>
     <row r="8" spans="2:72" s="26" customFormat="1">
       <c r="B8" s="16"/>
@@ -2421,334 +2675,334 @@
       </c>
     </row>
     <row r="10" spans="2:72">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="K10" s="31" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="K10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="T10" s="31" t="s">
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="T10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AC10" s="31" t="s">
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AC10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AL10" s="31" t="s">
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AL10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AU10" s="31" t="s">
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AU10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BD10" s="31" t="s">
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="35"/>
+      <c r="BD10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
-      <c r="BK10" s="31"/>
-      <c r="BM10" s="31" t="s">
+      <c r="BE10" s="35"/>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="35"/>
+      <c r="BI10" s="35"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="35"/>
+      <c r="BM10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BN10" s="31"/>
-      <c r="BO10" s="31"/>
-      <c r="BP10" s="31"/>
-      <c r="BQ10" s="31"/>
-      <c r="BR10" s="31"/>
-      <c r="BS10" s="31"/>
-      <c r="BT10" s="31"/>
+      <c r="BN10" s="35"/>
+      <c r="BO10" s="35"/>
+      <c r="BP10" s="35"/>
+      <c r="BQ10" s="35"/>
+      <c r="BR10" s="35"/>
+      <c r="BS10" s="35"/>
+      <c r="BT10" s="35"/>
     </row>
     <row r="12" spans="2:72" ht="15" customHeight="1">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="55">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="66">
         <v>2</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66">
         <v>4</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="37">
+      <c r="I12" s="67"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="47">
         <v>2</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37">
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47">
         <v>4</v>
       </c>
-      <c r="R12" s="65"/>
+      <c r="R12" s="72"/>
       <c r="S12" s="26"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="40">
+      <c r="T12" s="62"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="37">
         <v>2</v>
       </c>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37">
         <v>4</v>
       </c>
-      <c r="AA12" s="52"/>
+      <c r="AA12" s="60"/>
       <c r="AB12" s="26"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="40">
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="37">
         <v>2</v>
       </c>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40">
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37">
         <v>4</v>
       </c>
-      <c r="AJ12" s="52"/>
+      <c r="AJ12" s="60"/>
       <c r="AK12" s="26"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="40">
+      <c r="AL12" s="62"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="37">
         <v>2</v>
       </c>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40">
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37">
         <v>4</v>
       </c>
-      <c r="AS12" s="52"/>
+      <c r="AS12" s="60"/>
       <c r="AT12" s="26"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="40">
+      <c r="AU12" s="62"/>
+      <c r="AV12" s="63"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="37">
         <v>2</v>
       </c>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="40">
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37">
         <v>4</v>
       </c>
-      <c r="BB12" s="52"/>
+      <c r="BB12" s="60"/>
       <c r="BC12" s="26"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="49"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="49"/>
-      <c r="BH12" s="40">
+      <c r="BD12" s="62"/>
+      <c r="BE12" s="63"/>
+      <c r="BF12" s="63"/>
+      <c r="BG12" s="63"/>
+      <c r="BH12" s="37">
         <v>2</v>
       </c>
-      <c r="BI12" s="40"/>
-      <c r="BJ12" s="40">
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="37">
         <v>4</v>
       </c>
-      <c r="BK12" s="52"/>
+      <c r="BK12" s="60"/>
       <c r="BL12" s="26"/>
-      <c r="BM12" s="48"/>
-      <c r="BN12" s="49"/>
-      <c r="BO12" s="49"/>
-      <c r="BP12" s="49"/>
-      <c r="BQ12" s="40">
+      <c r="BM12" s="62"/>
+      <c r="BN12" s="63"/>
+      <c r="BO12" s="63"/>
+      <c r="BP12" s="63"/>
+      <c r="BQ12" s="37">
         <v>2</v>
       </c>
-      <c r="BR12" s="40"/>
-      <c r="BS12" s="40">
+      <c r="BR12" s="37"/>
+      <c r="BS12" s="37">
         <v>4</v>
       </c>
-      <c r="BT12" s="52"/>
+      <c r="BT12" s="60"/>
     </row>
     <row r="13" spans="2:72" ht="15" customHeight="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="64"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="66"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="73"/>
       <c r="S13" s="26"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="53"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="61"/>
       <c r="AB13" s="26"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="53"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="26"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="53"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="61"/>
       <c r="AT13" s="26"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="53"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="61"/>
       <c r="BC13" s="26"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="53"/>
+      <c r="BD13" s="64"/>
+      <c r="BE13" s="65"/>
+      <c r="BF13" s="65"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="61"/>
       <c r="BL13" s="26"/>
-      <c r="BM13" s="50"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
-      <c r="BP13" s="51"/>
-      <c r="BQ13" s="42"/>
-      <c r="BR13" s="42"/>
-      <c r="BS13" s="42"/>
-      <c r="BT13" s="53"/>
+      <c r="BM13" s="64"/>
+      <c r="BN13" s="65"/>
+      <c r="BO13" s="65"/>
+      <c r="BP13" s="65"/>
+      <c r="BQ13" s="39"/>
+      <c r="BR13" s="39"/>
+      <c r="BS13" s="39"/>
+      <c r="BT13" s="61"/>
     </row>
     <row r="14" spans="2:72" ht="15" customHeight="1">
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="64"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="66"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="73"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="53"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="61"/>
       <c r="AB14" s="26"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="53"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="26"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="53"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="61"/>
       <c r="AT14" s="26"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="53"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="61"/>
       <c r="BC14" s="26"/>
-      <c r="BD14" s="50"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="53"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="65"/>
+      <c r="BF14" s="65"/>
+      <c r="BG14" s="65"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="61"/>
       <c r="BL14" s="26"/>
-      <c r="BM14" s="50"/>
-      <c r="BN14" s="51"/>
-      <c r="BO14" s="51"/>
-      <c r="BP14" s="51"/>
-      <c r="BQ14" s="42"/>
-      <c r="BR14" s="42"/>
-      <c r="BS14" s="42"/>
-      <c r="BT14" s="53"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="65"/>
+      <c r="BO14" s="65"/>
+      <c r="BP14" s="65"/>
+      <c r="BQ14" s="39"/>
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="39"/>
+      <c r="BT14" s="61"/>
     </row>
     <row r="15" spans="2:72">
       <c r="B15" s="12" t="s">
@@ -2979,334 +3233,334 @@
       <c r="BT16" s="7"/>
     </row>
     <row r="17" spans="2:72" ht="16">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="K17" s="31" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="T17" s="31" t="s">
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="T17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AC17" s="31" t="s">
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AC17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AL17" s="31" t="s">
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AL17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AU17" s="31" t="s">
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AU17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BD17" s="31" t="s">
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="35"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="35"/>
+      <c r="BD17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="31"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="31"/>
-      <c r="BK17" s="31"/>
-      <c r="BM17" s="31" t="s">
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="35"/>
+      <c r="BG17" s="35"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="35"/>
+      <c r="BJ17" s="35"/>
+      <c r="BK17" s="35"/>
+      <c r="BM17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BN17" s="31"/>
-      <c r="BO17" s="31"/>
-      <c r="BP17" s="31"/>
-      <c r="BQ17" s="31"/>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="31"/>
-      <c r="BT17" s="31"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="35"/>
+      <c r="BP17" s="35"/>
+      <c r="BQ17" s="35"/>
+      <c r="BR17" s="35"/>
+      <c r="BS17" s="35"/>
+      <c r="BT17" s="35"/>
     </row>
     <row r="19" spans="2:72" ht="15" customHeight="1">
-      <c r="B19" s="39">
+      <c r="B19" s="36">
         <v>1</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="44">
+      <c r="E19" s="37"/>
+      <c r="F19" s="41">
         <v>4</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41">
         <v>4</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="43" t="s">
+      <c r="I19" s="43"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="32">
+      <c r="N19" s="37"/>
+      <c r="O19" s="50">
         <v>2</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32">
-        <v>0</v>
-      </c>
-      <c r="R19" s="33"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="58" t="s">
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50">
+        <v>0</v>
+      </c>
+      <c r="R19" s="52"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="40"/>
-      <c r="X19" s="44">
+      <c r="W19" s="37"/>
+      <c r="X19" s="41">
         <v>3</v>
       </c>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="46"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="58" t="s">
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="43"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="44">
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="41">
         <v>3</v>
       </c>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="46"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="60"/>
-      <c r="AN19" s="36" t="s">
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="43"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="32">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="33"/>
-      <c r="AU19" s="59"/>
-      <c r="AV19" s="60"/>
-      <c r="AW19" s="36" t="s">
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="50">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="52"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="32">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="32"/>
-      <c r="BA19" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="33"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="36" t="s">
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="50">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="52"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BG19" s="37"/>
-      <c r="BH19" s="32">
-        <v>0</v>
-      </c>
-      <c r="BI19" s="32"/>
-      <c r="BJ19" s="32">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="33"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="60"/>
-      <c r="BO19" s="36" t="s">
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="50">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="50">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="52"/>
+      <c r="BM19" s="55"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BP19" s="37"/>
-      <c r="BQ19" s="32">
-        <v>0</v>
-      </c>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32">
-        <v>0</v>
-      </c>
-      <c r="BT19" s="33"/>
+      <c r="BP19" s="47"/>
+      <c r="BQ19" s="50">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="50"/>
+      <c r="BS19" s="50">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="52"/>
     </row>
     <row r="20" spans="2:72" ht="15" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="47"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="35"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="47"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="47"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="35"/>
-      <c r="AU20" s="61"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="35"/>
-      <c r="BD20" s="61"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="35"/>
-      <c r="BM20" s="61"/>
-      <c r="BN20" s="62"/>
-      <c r="BO20" s="38"/>
-      <c r="BP20" s="38"/>
-      <c r="BQ20" s="34"/>
-      <c r="BR20" s="34"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="35"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="44"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="53"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="44"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="44"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="53"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="51"/>
+      <c r="BB20" s="53"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="53"/>
+      <c r="BM20" s="57"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="49"/>
+      <c r="BP20" s="49"/>
+      <c r="BQ20" s="51"/>
+      <c r="BR20" s="51"/>
+      <c r="BS20" s="51"/>
+      <c r="BT20" s="53"/>
     </row>
     <row r="21" spans="2:72" ht="15" customHeight="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="47"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="47"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="47"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="35"/>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="35"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="62"/>
-      <c r="BF21" s="38"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="35"/>
-      <c r="BM21" s="61"/>
-      <c r="BN21" s="62"/>
-      <c r="BO21" s="38"/>
-      <c r="BP21" s="38"/>
-      <c r="BQ21" s="34"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="34"/>
-      <c r="BT21" s="35"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="44"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="53"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="44"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="44"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="53"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="58"/>
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="53"/>
+      <c r="BD21" s="57"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="49"/>
+      <c r="BG21" s="49"/>
+      <c r="BH21" s="51"/>
+      <c r="BI21" s="51"/>
+      <c r="BJ21" s="51"/>
+      <c r="BK21" s="53"/>
+      <c r="BM21" s="57"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="49"/>
+      <c r="BP21" s="49"/>
+      <c r="BQ21" s="51"/>
+      <c r="BR21" s="51"/>
+      <c r="BS21" s="51"/>
+      <c r="BT21" s="53"/>
     </row>
     <row r="22" spans="2:72">
       <c r="B22" s="5"/>
@@ -3467,342 +3721,342 @@
       </c>
     </row>
     <row r="24" spans="2:72" ht="18" customHeight="1">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="K24" s="30" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="K24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="T24" s="31" t="s">
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="T24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AC24" s="31" t="s">
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AC24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AL24" s="31" t="s">
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AL24" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AU24" s="31" t="s">
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AU24" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="31"/>
-      <c r="BD24" s="31" t="s">
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="35"/>
+      <c r="BA24" s="35"/>
+      <c r="BB24" s="35"/>
+      <c r="BD24" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BI24" s="31"/>
-      <c r="BJ24" s="31"/>
-      <c r="BK24" s="31"/>
-      <c r="BM24" s="31" t="s">
+      <c r="BE24" s="35"/>
+      <c r="BF24" s="35"/>
+      <c r="BG24" s="35"/>
+      <c r="BH24" s="35"/>
+      <c r="BI24" s="35"/>
+      <c r="BJ24" s="35"/>
+      <c r="BK24" s="35"/>
+      <c r="BM24" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="BN24" s="31"/>
-      <c r="BO24" s="31"/>
-      <c r="BP24" s="31"/>
-      <c r="BQ24" s="31"/>
-      <c r="BR24" s="31"/>
-      <c r="BS24" s="31"/>
-      <c r="BT24" s="31"/>
+      <c r="BN24" s="35"/>
+      <c r="BO24" s="35"/>
+      <c r="BP24" s="35"/>
+      <c r="BQ24" s="35"/>
+      <c r="BR24" s="35"/>
+      <c r="BS24" s="35"/>
+      <c r="BT24" s="35"/>
     </row>
     <row r="25" spans="2:72" ht="16" customHeight="1">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
     </row>
     <row r="26" spans="2:72" ht="15" customHeight="1">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="T26" s="39">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="T26" s="36">
         <v>1</v>
       </c>
-      <c r="U26" s="40"/>
-      <c r="V26" s="43" t="s">
+      <c r="U26" s="37"/>
+      <c r="V26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="40"/>
-      <c r="X26" s="44">
+      <c r="W26" s="37"/>
+      <c r="X26" s="41">
         <v>4</v>
       </c>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44">
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41">
         <v>4</v>
       </c>
-      <c r="AA26" s="46"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="58" t="s">
+      <c r="AA26" s="43"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="44">
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="41">
         <v>3</v>
       </c>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44">
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41">
         <v>1</v>
       </c>
-      <c r="AJ26" s="46"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="36" t="s">
+      <c r="AJ26" s="43"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="33"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="60"/>
-      <c r="AW26" s="36" t="s">
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="52"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="32"/>
-      <c r="BA26" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="33"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="60"/>
-      <c r="BF26" s="36" t="s">
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="50">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="52"/>
+      <c r="BD26" s="55"/>
+      <c r="BE26" s="56"/>
+      <c r="BF26" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BG26" s="37"/>
-      <c r="BH26" s="32">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="32"/>
-      <c r="BJ26" s="32">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="33"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="60"/>
-      <c r="BO26" s="36" t="s">
+      <c r="BG26" s="47"/>
+      <c r="BH26" s="50">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="50">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="52"/>
+      <c r="BM26" s="55"/>
+      <c r="BN26" s="56"/>
+      <c r="BO26" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BP26" s="37"/>
-      <c r="BQ26" s="32">
-        <v>0</v>
-      </c>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="32">
-        <v>0</v>
-      </c>
-      <c r="BT26" s="33"/>
+      <c r="BP26" s="47"/>
+      <c r="BQ26" s="50">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="50"/>
+      <c r="BS26" s="50">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="52"/>
     </row>
     <row r="27" spans="2:72" ht="15" customHeight="1">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="47"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="47"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="35"/>
-      <c r="AU27" s="61"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="35"/>
-      <c r="BD27" s="61"/>
-      <c r="BE27" s="62"/>
-      <c r="BF27" s="38"/>
-      <c r="BG27" s="38"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="35"/>
-      <c r="BM27" s="61"/>
-      <c r="BN27" s="62"/>
-      <c r="BO27" s="38"/>
-      <c r="BP27" s="38"/>
-      <c r="BQ27" s="34"/>
-      <c r="BR27" s="34"/>
-      <c r="BS27" s="34"/>
-      <c r="BT27" s="35"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="44"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="44"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="58"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="53"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="58"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="53"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="58"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="51"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="53"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="58"/>
+      <c r="BO27" s="49"/>
+      <c r="BP27" s="49"/>
+      <c r="BQ27" s="51"/>
+      <c r="BR27" s="51"/>
+      <c r="BS27" s="51"/>
+      <c r="BT27" s="53"/>
     </row>
     <row r="28" spans="2:72" ht="15" customHeight="1">
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="47"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="47"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="62"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="35"/>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="38"/>
-      <c r="AX28" s="38"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="35"/>
-      <c r="BD28" s="61"/>
-      <c r="BE28" s="62"/>
-      <c r="BF28" s="38"/>
-      <c r="BG28" s="38"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="34"/>
-      <c r="BK28" s="35"/>
-      <c r="BM28" s="61"/>
-      <c r="BN28" s="62"/>
-      <c r="BO28" s="38"/>
-      <c r="BP28" s="38"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="34"/>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="35"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="44"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="44"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="53"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="58"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="51"/>
+      <c r="BB28" s="53"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="58"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="51"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="53"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="58"/>
+      <c r="BO28" s="49"/>
+      <c r="BP28" s="49"/>
+      <c r="BQ28" s="51"/>
+      <c r="BR28" s="51"/>
+      <c r="BS28" s="51"/>
+      <c r="BT28" s="53"/>
     </row>
     <row r="29" spans="2:72" ht="16" customHeight="1">
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
       <c r="T29" s="23"/>
       <c r="U29" s="24" t="s">
         <v>25</v>
@@ -3939,104 +4193,104 @@
       </c>
     </row>
     <row r="30" spans="2:72" ht="15" customHeight="1">
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
     </row>
     <row r="31" spans="2:72" ht="16" customHeight="1">
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="T31" s="31" t="s">
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="T31" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AC31" s="31" t="s">
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AC31" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AL31" s="31" t="s">
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AL31" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="31"/>
-      <c r="AS31" s="31"/>
-      <c r="AU31" s="31" t="s">
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+      <c r="AS31" s="35"/>
+      <c r="AU31" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AV31" s="31"/>
-      <c r="AW31" s="31"/>
-      <c r="AX31" s="31"/>
-      <c r="AY31" s="31"/>
-      <c r="AZ31" s="31"/>
-      <c r="BA31" s="31"/>
-      <c r="BB31" s="31"/>
-      <c r="BD31" s="31" t="s">
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="35"/>
+      <c r="AX31" s="35"/>
+      <c r="AY31" s="35"/>
+      <c r="AZ31" s="35"/>
+      <c r="BA31" s="35"/>
+      <c r="BB31" s="35"/>
+      <c r="BD31" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="BE31" s="31"/>
-      <c r="BF31" s="31"/>
-      <c r="BG31" s="31"/>
-      <c r="BH31" s="31"/>
-      <c r="BI31" s="31"/>
-      <c r="BJ31" s="31"/>
-      <c r="BK31" s="31"/>
-      <c r="BM31" s="31" t="s">
+      <c r="BE31" s="35"/>
+      <c r="BF31" s="35"/>
+      <c r="BG31" s="35"/>
+      <c r="BH31" s="35"/>
+      <c r="BI31" s="35"/>
+      <c r="BJ31" s="35"/>
+      <c r="BK31" s="35"/>
+      <c r="BM31" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="BN31" s="31"/>
-      <c r="BO31" s="31"/>
-      <c r="BP31" s="31"/>
-      <c r="BQ31" s="31"/>
-      <c r="BR31" s="31"/>
-      <c r="BS31" s="31"/>
-      <c r="BT31" s="31"/>
+      <c r="BN31" s="35"/>
+      <c r="BO31" s="35"/>
+      <c r="BP31" s="35"/>
+      <c r="BQ31" s="35"/>
+      <c r="BR31" s="35"/>
+      <c r="BS31" s="35"/>
+      <c r="BT31" s="35"/>
     </row>
     <row r="32" spans="2:72">
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="T32" s="31" t="s">
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="T32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
       <c r="AK32" s="27"/>
       <c r="AT32" s="27"/>
     </row>
@@ -4049,92 +4303,92 @@
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
-      <c r="T33" s="31" t="s">
+      <c r="T33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="36" t="s">
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="33"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="52"/>
       <c r="AK33" s="27"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="60"/>
-      <c r="AN33" s="36" t="s">
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="32">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="33"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="52"/>
       <c r="AT33" s="27"/>
-      <c r="AU33" s="59"/>
-      <c r="AV33" s="60"/>
-      <c r="AW33" s="36" t="s">
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AX33" s="37"/>
-      <c r="AY33" s="32">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="32"/>
-      <c r="BA33" s="32">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="33"/>
-      <c r="BD33" s="39">
+      <c r="AX33" s="47"/>
+      <c r="AY33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="50"/>
+      <c r="BA33" s="50">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="52"/>
+      <c r="BD33" s="36">
         <v>1</v>
       </c>
-      <c r="BE33" s="40"/>
-      <c r="BF33" s="43" t="s">
+      <c r="BE33" s="37"/>
+      <c r="BF33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BG33" s="40"/>
-      <c r="BH33" s="44">
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="41">
         <v>4</v>
       </c>
-      <c r="BI33" s="44"/>
-      <c r="BJ33" s="44">
+      <c r="BI33" s="41"/>
+      <c r="BJ33" s="41">
         <v>4</v>
       </c>
-      <c r="BK33" s="46"/>
-      <c r="BM33" s="39">
+      <c r="BK33" s="43"/>
+      <c r="BM33" s="36">
         <v>1</v>
       </c>
-      <c r="BN33" s="40"/>
-      <c r="BO33" s="43" t="s">
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BP33" s="40"/>
-      <c r="BQ33" s="44">
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="41">
         <v>4</v>
       </c>
-      <c r="BR33" s="44"/>
-      <c r="BS33" s="44">
+      <c r="BR33" s="41"/>
+      <c r="BS33" s="41">
         <v>4</v>
       </c>
-      <c r="BT33" s="46"/>
+      <c r="BT33" s="43"/>
     </row>
     <row r="34" spans="11:72" ht="15" customHeight="1">
       <c r="K34" s="29"/>
@@ -4145,58 +4399,58 @@
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
-      <c r="T34" s="31" t="s">
+      <c r="T34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AC34" s="61"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="53"/>
       <c r="AK34" s="27"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="35"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="53"/>
       <c r="AT34" s="27"/>
-      <c r="AU34" s="61"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="38"/>
-      <c r="AX34" s="38"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
-      <c r="BA34" s="34"/>
-      <c r="BB34" s="35"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="45"/>
-      <c r="BI34" s="45"/>
-      <c r="BJ34" s="45"/>
-      <c r="BK34" s="47"/>
-      <c r="BM34" s="41"/>
-      <c r="BN34" s="42"/>
-      <c r="BO34" s="42"/>
-      <c r="BP34" s="42"/>
-      <c r="BQ34" s="45"/>
-      <c r="BR34" s="45"/>
-      <c r="BS34" s="45"/>
-      <c r="BT34" s="47"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="58"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="53"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="39"/>
+      <c r="BF34" s="39"/>
+      <c r="BG34" s="39"/>
+      <c r="BH34" s="42"/>
+      <c r="BI34" s="42"/>
+      <c r="BJ34" s="42"/>
+      <c r="BK34" s="44"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="39"/>
+      <c r="BO34" s="39"/>
+      <c r="BP34" s="39"/>
+      <c r="BQ34" s="42"/>
+      <c r="BR34" s="42"/>
+      <c r="BS34" s="42"/>
+      <c r="BT34" s="44"/>
     </row>
     <row r="35" spans="11:72" ht="15" customHeight="1">
       <c r="K35" s="29"/>
@@ -4207,58 +4461,58 @@
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
-      <c r="T35" s="31" t="s">
+      <c r="T35" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="53"/>
       <c r="AK35" s="27"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="38"/>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="34"/>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="34"/>
-      <c r="AS35" s="35"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="53"/>
       <c r="AT35" s="27"/>
-      <c r="AU35" s="61"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="38"/>
-      <c r="AX35" s="38"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="34"/>
-      <c r="BA35" s="34"/>
-      <c r="BB35" s="35"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="42"/>
-      <c r="BF35" s="42"/>
-      <c r="BG35" s="42"/>
-      <c r="BH35" s="45"/>
-      <c r="BI35" s="45"/>
-      <c r="BJ35" s="45"/>
-      <c r="BK35" s="47"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="42"/>
-      <c r="BO35" s="42"/>
-      <c r="BP35" s="42"/>
-      <c r="BQ35" s="45"/>
-      <c r="BR35" s="45"/>
-      <c r="BS35" s="45"/>
-      <c r="BT35" s="47"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="53"/>
+      <c r="BD35" s="38"/>
+      <c r="BE35" s="39"/>
+      <c r="BF35" s="39"/>
+      <c r="BG35" s="39"/>
+      <c r="BH35" s="42"/>
+      <c r="BI35" s="42"/>
+      <c r="BJ35" s="42"/>
+      <c r="BK35" s="44"/>
+      <c r="BM35" s="38"/>
+      <c r="BN35" s="39"/>
+      <c r="BO35" s="39"/>
+      <c r="BP35" s="39"/>
+      <c r="BQ35" s="42"/>
+      <c r="BR35" s="42"/>
+      <c r="BS35" s="42"/>
+      <c r="BT35" s="44"/>
     </row>
     <row r="36" spans="11:72">
       <c r="K36" s="29"/>
@@ -4269,16 +4523,16 @@
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
-      <c r="T36" s="31" t="s">
+      <c r="T36" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
       <c r="AC36" s="12" t="s">
         <v>8</v>
       </c>
@@ -4397,16 +4651,16 @@
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
-      <c r="T37" s="31" t="s">
+      <c r="T37" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
       <c r="AK37" s="27"/>
       <c r="AL37" s="27"/>
       <c r="AM37" s="27"/>
@@ -4443,70 +4697,70 @@
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
       <c r="AA38" s="27"/>
-      <c r="AC38" s="31" t="s">
+      <c r="AC38" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
       <c r="AK38" s="27"/>
-      <c r="AL38" s="31" t="s">
+      <c r="AL38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
       <c r="AT38" s="27"/>
-      <c r="AU38" s="31" t="s">
+      <c r="AU38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BD38" s="31" t="s">
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="35"/>
+      <c r="AY38" s="35"/>
+      <c r="AZ38" s="35"/>
+      <c r="BA38" s="35"/>
+      <c r="BB38" s="35"/>
+      <c r="BD38" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="31"/>
-      <c r="BJ38" s="31"/>
-      <c r="BK38" s="31"/>
-      <c r="BM38" s="31" t="s">
+      <c r="BE38" s="35"/>
+      <c r="BF38" s="35"/>
+      <c r="BG38" s="35"/>
+      <c r="BH38" s="35"/>
+      <c r="BI38" s="35"/>
+      <c r="BJ38" s="35"/>
+      <c r="BK38" s="35"/>
+      <c r="BM38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="BN38" s="31"/>
-      <c r="BO38" s="31"/>
-      <c r="BP38" s="31"/>
-      <c r="BQ38" s="31"/>
-      <c r="BR38" s="31"/>
-      <c r="BS38" s="31"/>
-      <c r="BT38" s="31"/>
+      <c r="BN38" s="35"/>
+      <c r="BO38" s="35"/>
+      <c r="BP38" s="35"/>
+      <c r="BQ38" s="35"/>
+      <c r="BR38" s="35"/>
+      <c r="BS38" s="35"/>
+      <c r="BT38" s="35"/>
     </row>
     <row r="39" spans="11:72" ht="15" customHeight="1">
-      <c r="T39" s="30" t="s">
+      <c r="T39" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="28"/>
@@ -4517,204 +4771,204 @@
       <c r="AJ39" s="28"/>
     </row>
     <row r="40" spans="11:72" ht="15" customHeight="1">
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AC40" s="39">
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AC40" s="36">
         <v>1</v>
       </c>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="43" t="s">
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="44">
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="41">
         <v>4</v>
       </c>
-      <c r="AH40" s="44"/>
-      <c r="AI40" s="44">
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41">
         <v>5</v>
       </c>
-      <c r="AJ40" s="46"/>
-      <c r="AL40" s="39">
+      <c r="AJ40" s="43"/>
+      <c r="AL40" s="36">
         <v>1</v>
       </c>
-      <c r="AM40" s="40"/>
-      <c r="AN40" s="43" t="s">
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AO40" s="40"/>
-      <c r="AP40" s="44">
+      <c r="AO40" s="37"/>
+      <c r="AP40" s="41">
         <v>4</v>
       </c>
-      <c r="AQ40" s="44"/>
-      <c r="AR40" s="44">
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="41">
         <v>5</v>
       </c>
-      <c r="AS40" s="46"/>
-      <c r="AU40" s="39">
+      <c r="AS40" s="43"/>
+      <c r="AU40" s="36">
         <v>1</v>
       </c>
-      <c r="AV40" s="40"/>
-      <c r="AW40" s="43" t="s">
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AX40" s="40"/>
-      <c r="AY40" s="44">
+      <c r="AX40" s="37"/>
+      <c r="AY40" s="41">
         <v>4</v>
       </c>
-      <c r="AZ40" s="44"/>
-      <c r="BA40" s="44">
+      <c r="AZ40" s="41"/>
+      <c r="BA40" s="41">
         <v>5</v>
       </c>
-      <c r="BB40" s="46"/>
-      <c r="BD40" s="39">
+      <c r="BB40" s="43"/>
+      <c r="BD40" s="36">
         <v>1</v>
       </c>
-      <c r="BE40" s="40"/>
-      <c r="BF40" s="43" t="s">
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="BG40" s="40"/>
-      <c r="BH40" s="44">
+      <c r="BG40" s="37"/>
+      <c r="BH40" s="41">
         <v>4</v>
       </c>
-      <c r="BI40" s="44"/>
-      <c r="BJ40" s="44">
+      <c r="BI40" s="41"/>
+      <c r="BJ40" s="41">
         <v>4</v>
       </c>
-      <c r="BK40" s="46"/>
-      <c r="BM40" s="54">
+      <c r="BK40" s="43"/>
+      <c r="BM40" s="70">
         <v>2</v>
       </c>
-      <c r="BN40" s="55"/>
-      <c r="BO40" s="55">
-        <v>0</v>
-      </c>
-      <c r="BP40" s="55"/>
-      <c r="BQ40" s="55">
+      <c r="BN40" s="66"/>
+      <c r="BO40" s="66">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="66"/>
+      <c r="BQ40" s="66">
         <v>1</v>
       </c>
-      <c r="BR40" s="55"/>
-      <c r="BS40" s="55">
+      <c r="BR40" s="66"/>
+      <c r="BS40" s="66">
         <v>3</v>
       </c>
-      <c r="BT40" s="63"/>
+      <c r="BT40" s="67"/>
     </row>
     <row r="41" spans="11:72" ht="15" customHeight="1">
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="47"/>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="42"/>
-      <c r="AO41" s="42"/>
-      <c r="AP41" s="45"/>
-      <c r="AQ41" s="45"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="47"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="42"/>
-      <c r="AW41" s="42"/>
-      <c r="AX41" s="42"/>
-      <c r="AY41" s="45"/>
-      <c r="AZ41" s="45"/>
-      <c r="BA41" s="45"/>
-      <c r="BB41" s="47"/>
-      <c r="BD41" s="41"/>
-      <c r="BE41" s="42"/>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="42"/>
-      <c r="BH41" s="45"/>
-      <c r="BI41" s="45"/>
-      <c r="BJ41" s="45"/>
-      <c r="BK41" s="47"/>
-      <c r="BM41" s="56"/>
-      <c r="BN41" s="57"/>
-      <c r="BO41" s="57"/>
-      <c r="BP41" s="57"/>
-      <c r="BQ41" s="57"/>
-      <c r="BR41" s="57"/>
-      <c r="BS41" s="57"/>
-      <c r="BT41" s="64"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="44"/>
+      <c r="AL41" s="38"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="42"/>
+      <c r="AQ41" s="42"/>
+      <c r="AR41" s="42"/>
+      <c r="AS41" s="44"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="42"/>
+      <c r="AZ41" s="42"/>
+      <c r="BA41" s="42"/>
+      <c r="BB41" s="44"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="39"/>
+      <c r="BF41" s="39"/>
+      <c r="BG41" s="39"/>
+      <c r="BH41" s="42"/>
+      <c r="BI41" s="42"/>
+      <c r="BJ41" s="42"/>
+      <c r="BK41" s="44"/>
+      <c r="BM41" s="71"/>
+      <c r="BN41" s="68"/>
+      <c r="BO41" s="68"/>
+      <c r="BP41" s="68"/>
+      <c r="BQ41" s="68"/>
+      <c r="BR41" s="68"/>
+      <c r="BS41" s="68"/>
+      <c r="BT41" s="69"/>
     </row>
     <row r="42" spans="11:72" ht="15" customHeight="1">
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="69"/>
-      <c r="AF42" s="69"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="47"/>
-      <c r="AL42" s="41"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
-      <c r="AP42" s="45"/>
-      <c r="AQ42" s="45"/>
-      <c r="AR42" s="45"/>
-      <c r="AS42" s="47"/>
-      <c r="AU42" s="41"/>
-      <c r="AV42" s="42"/>
-      <c r="AW42" s="42"/>
-      <c r="AX42" s="42"/>
-      <c r="AY42" s="45"/>
-      <c r="AZ42" s="45"/>
-      <c r="BA42" s="45"/>
-      <c r="BB42" s="47"/>
-      <c r="BD42" s="41"/>
-      <c r="BE42" s="42"/>
-      <c r="BF42" s="42"/>
-      <c r="BG42" s="42"/>
-      <c r="BH42" s="45"/>
-      <c r="BI42" s="45"/>
-      <c r="BJ42" s="45"/>
-      <c r="BK42" s="47"/>
-      <c r="BM42" s="56"/>
-      <c r="BN42" s="57"/>
-      <c r="BO42" s="57"/>
-      <c r="BP42" s="57"/>
-      <c r="BQ42" s="57"/>
-      <c r="BR42" s="57"/>
-      <c r="BS42" s="57"/>
-      <c r="BT42" s="64"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
+      <c r="AI42" s="42"/>
+      <c r="AJ42" s="44"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="39"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="42"/>
+      <c r="AR42" s="42"/>
+      <c r="AS42" s="44"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="39"/>
+      <c r="AW42" s="39"/>
+      <c r="AX42" s="39"/>
+      <c r="AY42" s="42"/>
+      <c r="AZ42" s="42"/>
+      <c r="BA42" s="42"/>
+      <c r="BB42" s="44"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="39"/>
+      <c r="BF42" s="39"/>
+      <c r="BG42" s="39"/>
+      <c r="BH42" s="42"/>
+      <c r="BI42" s="42"/>
+      <c r="BJ42" s="42"/>
+      <c r="BK42" s="44"/>
+      <c r="BM42" s="71"/>
+      <c r="BN42" s="68"/>
+      <c r="BO42" s="68"/>
+      <c r="BP42" s="68"/>
+      <c r="BQ42" s="68"/>
+      <c r="BR42" s="68"/>
+      <c r="BS42" s="68"/>
+      <c r="BT42" s="69"/>
     </row>
     <row r="43" spans="11:72">
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
       <c r="AC43" s="10"/>
       <c r="AD43" s="22" t="s">
         <v>24</v>
@@ -4805,282 +5059,282 @@
       </c>
     </row>
     <row r="44" spans="11:72">
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
     </row>
     <row r="45" spans="11:72" ht="16" customHeight="1">
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AC45" s="30" t="s">
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AC45" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AL45" s="30" t="s">
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="34"/>
+      <c r="AJ45" s="34"/>
+      <c r="AL45" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AM45" s="30"/>
-      <c r="AN45" s="30"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="30"/>
-      <c r="AR45" s="30"/>
-      <c r="AS45" s="30"/>
-      <c r="AU45" s="30" t="s">
+      <c r="AM45" s="34"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="34"/>
+      <c r="AP45" s="34"/>
+      <c r="AQ45" s="34"/>
+      <c r="AR45" s="34"/>
+      <c r="AS45" s="34"/>
+      <c r="AU45" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AV45" s="30"/>
-      <c r="AW45" s="30"/>
-      <c r="AX45" s="30"/>
-      <c r="AY45" s="30"/>
-      <c r="AZ45" s="30"/>
-      <c r="BA45" s="30"/>
-      <c r="BB45" s="30"/>
-      <c r="BD45" s="31" t="s">
+      <c r="AV45" s="34"/>
+      <c r="AW45" s="34"/>
+      <c r="AX45" s="34"/>
+      <c r="AY45" s="34"/>
+      <c r="AZ45" s="34"/>
+      <c r="BA45" s="34"/>
+      <c r="BB45" s="34"/>
+      <c r="BD45" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="BE45" s="31"/>
-      <c r="BF45" s="31"/>
-      <c r="BG45" s="31"/>
-      <c r="BH45" s="31"/>
-      <c r="BI45" s="31"/>
-      <c r="BJ45" s="31"/>
-      <c r="BK45" s="31"/>
-      <c r="BM45" s="31" t="s">
+      <c r="BE45" s="35"/>
+      <c r="BF45" s="35"/>
+      <c r="BG45" s="35"/>
+      <c r="BH45" s="35"/>
+      <c r="BI45" s="35"/>
+      <c r="BJ45" s="35"/>
+      <c r="BK45" s="35"/>
+      <c r="BM45" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="BN45" s="31"/>
-      <c r="BO45" s="31"/>
-      <c r="BP45" s="31"/>
-      <c r="BQ45" s="31"/>
-      <c r="BR45" s="31"/>
-      <c r="BS45" s="31"/>
-      <c r="BT45" s="31"/>
+      <c r="BN45" s="35"/>
+      <c r="BO45" s="35"/>
+      <c r="BP45" s="35"/>
+      <c r="BQ45" s="35"/>
+      <c r="BR45" s="35"/>
+      <c r="BS45" s="35"/>
+      <c r="BT45" s="35"/>
     </row>
     <row r="46" spans="11:72">
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
-      <c r="AG46" s="30"/>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="30"/>
-      <c r="AJ46" s="30"/>
-      <c r="AL46" s="30"/>
-      <c r="AM46" s="30"/>
-      <c r="AN46" s="30"/>
-      <c r="AO46" s="30"/>
-      <c r="AP46" s="30"/>
-      <c r="AQ46" s="30"/>
-      <c r="AR46" s="30"/>
-      <c r="AS46" s="30"/>
-      <c r="AU46" s="30"/>
-      <c r="AV46" s="30"/>
-      <c r="AW46" s="30"/>
-      <c r="AX46" s="30"/>
-      <c r="AY46" s="30"/>
-      <c r="AZ46" s="30"/>
-      <c r="BA46" s="30"/>
-      <c r="BB46" s="30"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="34"/>
+      <c r="AH46" s="34"/>
+      <c r="AI46" s="34"/>
+      <c r="AJ46" s="34"/>
+      <c r="AL46" s="34"/>
+      <c r="AM46" s="34"/>
+      <c r="AN46" s="34"/>
+      <c r="AO46" s="34"/>
+      <c r="AP46" s="34"/>
+      <c r="AQ46" s="34"/>
+      <c r="AR46" s="34"/>
+      <c r="AS46" s="34"/>
+      <c r="AU46" s="34"/>
+      <c r="AV46" s="34"/>
+      <c r="AW46" s="34"/>
+      <c r="AX46" s="34"/>
+      <c r="AY46" s="34"/>
+      <c r="AZ46" s="34"/>
+      <c r="BA46" s="34"/>
+      <c r="BB46" s="34"/>
     </row>
     <row r="47" spans="11:72" ht="15" customHeight="1">
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30"/>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AU47" s="30"/>
-      <c r="AV47" s="30"/>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="30"/>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
-      <c r="BB47" s="30"/>
-      <c r="BD47" s="39">
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="34"/>
+      <c r="AJ47" s="34"/>
+      <c r="AL47" s="34"/>
+      <c r="AM47" s="34"/>
+      <c r="AN47" s="34"/>
+      <c r="AO47" s="34"/>
+      <c r="AP47" s="34"/>
+      <c r="AQ47" s="34"/>
+      <c r="AR47" s="34"/>
+      <c r="AS47" s="34"/>
+      <c r="AU47" s="34"/>
+      <c r="AV47" s="34"/>
+      <c r="AW47" s="34"/>
+      <c r="AX47" s="34"/>
+      <c r="AY47" s="34"/>
+      <c r="AZ47" s="34"/>
+      <c r="BA47" s="34"/>
+      <c r="BB47" s="34"/>
+      <c r="BD47" s="36">
         <v>1</v>
       </c>
-      <c r="BE47" s="40"/>
-      <c r="BF47" s="43" t="s">
+      <c r="BE47" s="37"/>
+      <c r="BF47" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="BG47" s="40"/>
-      <c r="BH47" s="44">
+      <c r="BG47" s="37"/>
+      <c r="BH47" s="41">
         <v>4</v>
       </c>
-      <c r="BI47" s="44"/>
-      <c r="BJ47" s="44">
+      <c r="BI47" s="41"/>
+      <c r="BJ47" s="41">
         <v>4</v>
       </c>
-      <c r="BK47" s="46"/>
-      <c r="BM47" s="59"/>
-      <c r="BN47" s="60"/>
-      <c r="BO47" s="60"/>
-      <c r="BP47" s="60"/>
-      <c r="BQ47" s="55">
-        <v>0</v>
-      </c>
-      <c r="BR47" s="55"/>
-      <c r="BS47" s="55">
+      <c r="BK47" s="43"/>
+      <c r="BM47" s="55"/>
+      <c r="BN47" s="56"/>
+      <c r="BO47" s="56"/>
+      <c r="BP47" s="56"/>
+      <c r="BQ47" s="66">
+        <v>0</v>
+      </c>
+      <c r="BR47" s="66"/>
+      <c r="BS47" s="66">
         <v>2</v>
       </c>
-      <c r="BT47" s="63"/>
+      <c r="BT47" s="67"/>
     </row>
     <row r="48" spans="11:72" ht="15" customHeight="1">
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AL48" s="30"/>
-      <c r="AM48" s="30"/>
-      <c r="AN48" s="30"/>
-      <c r="AO48" s="30"/>
-      <c r="AP48" s="30"/>
-      <c r="AQ48" s="30"/>
-      <c r="AR48" s="30"/>
-      <c r="AS48" s="30"/>
-      <c r="AU48" s="30"/>
-      <c r="AV48" s="30"/>
-      <c r="AW48" s="30"/>
-      <c r="AX48" s="30"/>
-      <c r="AY48" s="30"/>
-      <c r="AZ48" s="30"/>
-      <c r="BA48" s="30"/>
-      <c r="BB48" s="30"/>
-      <c r="BD48" s="41"/>
-      <c r="BE48" s="42"/>
-      <c r="BF48" s="42"/>
-      <c r="BG48" s="42"/>
-      <c r="BH48" s="45"/>
-      <c r="BI48" s="45"/>
-      <c r="BJ48" s="45"/>
-      <c r="BK48" s="47"/>
-      <c r="BM48" s="61"/>
-      <c r="BN48" s="62"/>
-      <c r="BO48" s="62"/>
-      <c r="BP48" s="62"/>
-      <c r="BQ48" s="57"/>
-      <c r="BR48" s="57"/>
-      <c r="BS48" s="57"/>
-      <c r="BT48" s="64"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="34"/>
+      <c r="AP48" s="34"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="34"/>
+      <c r="AS48" s="34"/>
+      <c r="AU48" s="34"/>
+      <c r="AV48" s="34"/>
+      <c r="AW48" s="34"/>
+      <c r="AX48" s="34"/>
+      <c r="AY48" s="34"/>
+      <c r="AZ48" s="34"/>
+      <c r="BA48" s="34"/>
+      <c r="BB48" s="34"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="39"/>
+      <c r="BF48" s="39"/>
+      <c r="BG48" s="39"/>
+      <c r="BH48" s="42"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
+      <c r="BK48" s="44"/>
+      <c r="BM48" s="57"/>
+      <c r="BN48" s="58"/>
+      <c r="BO48" s="58"/>
+      <c r="BP48" s="58"/>
+      <c r="BQ48" s="68"/>
+      <c r="BR48" s="68"/>
+      <c r="BS48" s="68"/>
+      <c r="BT48" s="69"/>
     </row>
     <row r="49" spans="29:72" ht="15" customHeight="1">
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="30"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AL49" s="30"/>
-      <c r="AM49" s="30"/>
-      <c r="AN49" s="30"/>
-      <c r="AO49" s="30"/>
-      <c r="AP49" s="30"/>
-      <c r="AQ49" s="30"/>
-      <c r="AR49" s="30"/>
-      <c r="AS49" s="30"/>
-      <c r="AU49" s="30"/>
-      <c r="AV49" s="30"/>
-      <c r="AW49" s="30"/>
-      <c r="AX49" s="30"/>
-      <c r="AY49" s="30"/>
-      <c r="AZ49" s="30"/>
-      <c r="BA49" s="30"/>
-      <c r="BB49" s="30"/>
-      <c r="BD49" s="41"/>
-      <c r="BE49" s="42"/>
-      <c r="BF49" s="42"/>
-      <c r="BG49" s="42"/>
-      <c r="BH49" s="45"/>
-      <c r="BI49" s="45"/>
-      <c r="BJ49" s="45"/>
-      <c r="BK49" s="47"/>
-      <c r="BM49" s="61"/>
-      <c r="BN49" s="62"/>
-      <c r="BO49" s="62"/>
-      <c r="BP49" s="62"/>
-      <c r="BQ49" s="57"/>
-      <c r="BR49" s="57"/>
-      <c r="BS49" s="57"/>
-      <c r="BT49" s="64"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AL49" s="34"/>
+      <c r="AM49" s="34"/>
+      <c r="AN49" s="34"/>
+      <c r="AO49" s="34"/>
+      <c r="AP49" s="34"/>
+      <c r="AQ49" s="34"/>
+      <c r="AR49" s="34"/>
+      <c r="AS49" s="34"/>
+      <c r="AU49" s="34"/>
+      <c r="AV49" s="34"/>
+      <c r="AW49" s="34"/>
+      <c r="AX49" s="34"/>
+      <c r="AY49" s="34"/>
+      <c r="AZ49" s="34"/>
+      <c r="BA49" s="34"/>
+      <c r="BB49" s="34"/>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="39"/>
+      <c r="BF49" s="39"/>
+      <c r="BG49" s="39"/>
+      <c r="BH49" s="42"/>
+      <c r="BI49" s="42"/>
+      <c r="BJ49" s="42"/>
+      <c r="BK49" s="44"/>
+      <c r="BM49" s="57"/>
+      <c r="BN49" s="58"/>
+      <c r="BO49" s="58"/>
+      <c r="BP49" s="58"/>
+      <c r="BQ49" s="68"/>
+      <c r="BR49" s="68"/>
+      <c r="BS49" s="68"/>
+      <c r="BT49" s="69"/>
     </row>
     <row r="50" spans="29:72">
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="30"/>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="30"/>
-      <c r="AH50" s="30"/>
-      <c r="AI50" s="30"/>
-      <c r="AJ50" s="30"/>
-      <c r="AL50" s="30"/>
-      <c r="AM50" s="30"/>
-      <c r="AN50" s="30"/>
-      <c r="AO50" s="30"/>
-      <c r="AP50" s="30"/>
-      <c r="AQ50" s="30"/>
-      <c r="AR50" s="30"/>
-      <c r="AS50" s="30"/>
-      <c r="AU50" s="30" t="s">
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AL50" s="34"/>
+      <c r="AM50" s="34"/>
+      <c r="AN50" s="34"/>
+      <c r="AO50" s="34"/>
+      <c r="AP50" s="34"/>
+      <c r="AQ50" s="34"/>
+      <c r="AR50" s="34"/>
+      <c r="AS50" s="34"/>
+      <c r="AU50" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AV50" s="30"/>
-      <c r="AW50" s="30"/>
-      <c r="AX50" s="30"/>
-      <c r="AY50" s="30"/>
-      <c r="AZ50" s="30"/>
-      <c r="BA50" s="30"/>
-      <c r="BB50" s="30"/>
+      <c r="AV50" s="34"/>
+      <c r="AW50" s="34"/>
+      <c r="AX50" s="34"/>
+      <c r="AY50" s="34"/>
+      <c r="AZ50" s="34"/>
+      <c r="BA50" s="34"/>
+      <c r="BB50" s="34"/>
       <c r="BD50" s="12"/>
       <c r="BE50" s="8"/>
       <c r="BF50" s="8"/>
@@ -5113,142 +5367,142 @@
       </c>
     </row>
     <row r="51" spans="29:72">
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30"/>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AL51" s="30"/>
-      <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="30"/>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="30"/>
-      <c r="AU51" s="30"/>
-      <c r="AV51" s="30"/>
-      <c r="AW51" s="30"/>
-      <c r="AX51" s="30"/>
-      <c r="AY51" s="30"/>
-      <c r="AZ51" s="30"/>
-      <c r="BA51" s="30"/>
-      <c r="BB51" s="30"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="34"/>
+      <c r="AP51" s="34"/>
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="34"/>
+      <c r="AS51" s="34"/>
+      <c r="AU51" s="34"/>
+      <c r="AV51" s="34"/>
+      <c r="AW51" s="34"/>
+      <c r="AX51" s="34"/>
+      <c r="AY51" s="34"/>
+      <c r="AZ51" s="34"/>
+      <c r="BA51" s="34"/>
+      <c r="BB51" s="34"/>
     </row>
     <row r="52" spans="29:72" ht="16">
-      <c r="AL52" s="30"/>
-      <c r="AM52" s="30"/>
-      <c r="AN52" s="30"/>
-      <c r="AO52" s="30"/>
-      <c r="AP52" s="30"/>
-      <c r="AQ52" s="30"/>
-      <c r="AR52" s="30"/>
-      <c r="AS52" s="30"/>
-      <c r="AU52" s="30"/>
-      <c r="AV52" s="30"/>
-      <c r="AW52" s="30"/>
-      <c r="AX52" s="30"/>
-      <c r="AY52" s="30"/>
-      <c r="AZ52" s="30"/>
-      <c r="BA52" s="30"/>
-      <c r="BB52" s="30"/>
-      <c r="BD52" s="30" t="s">
+      <c r="AL52" s="34"/>
+      <c r="AM52" s="34"/>
+      <c r="AN52" s="34"/>
+      <c r="AO52" s="34"/>
+      <c r="AP52" s="34"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="34"/>
+      <c r="AS52" s="34"/>
+      <c r="AU52" s="34"/>
+      <c r="AV52" s="34"/>
+      <c r="AW52" s="34"/>
+      <c r="AX52" s="34"/>
+      <c r="AY52" s="34"/>
+      <c r="AZ52" s="34"/>
+      <c r="BA52" s="34"/>
+      <c r="BB52" s="34"/>
+      <c r="BD52" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BE52" s="30"/>
-      <c r="BF52" s="30"/>
-      <c r="BG52" s="30"/>
-      <c r="BH52" s="30"/>
-      <c r="BI52" s="30"/>
-      <c r="BJ52" s="30"/>
-      <c r="BK52" s="30"/>
-      <c r="BM52" s="31" t="s">
+      <c r="BE52" s="34"/>
+      <c r="BF52" s="34"/>
+      <c r="BG52" s="34"/>
+      <c r="BH52" s="34"/>
+      <c r="BI52" s="34"/>
+      <c r="BJ52" s="34"/>
+      <c r="BK52" s="34"/>
+      <c r="BM52" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="BN52" s="31"/>
-      <c r="BO52" s="31"/>
-      <c r="BP52" s="31"/>
-      <c r="BQ52" s="31"/>
-      <c r="BR52" s="31"/>
-      <c r="BS52" s="31"/>
-      <c r="BT52" s="31"/>
+      <c r="BN52" s="35"/>
+      <c r="BO52" s="35"/>
+      <c r="BP52" s="35"/>
+      <c r="BQ52" s="35"/>
+      <c r="BR52" s="35"/>
+      <c r="BS52" s="35"/>
+      <c r="BT52" s="35"/>
     </row>
     <row r="53" spans="29:72">
-      <c r="AL53" s="30"/>
-      <c r="AM53" s="30"/>
-      <c r="AN53" s="30"/>
-      <c r="AO53" s="30"/>
-      <c r="AP53" s="30"/>
-      <c r="AQ53" s="30"/>
-      <c r="AR53" s="30"/>
-      <c r="AS53" s="30"/>
-      <c r="AU53" s="30"/>
-      <c r="AV53" s="30"/>
-      <c r="AW53" s="30"/>
-      <c r="AX53" s="30"/>
-      <c r="AY53" s="30"/>
-      <c r="AZ53" s="30"/>
-      <c r="BA53" s="30"/>
-      <c r="BB53" s="30"/>
-      <c r="BD53" s="30"/>
-      <c r="BE53" s="30"/>
-      <c r="BF53" s="30"/>
-      <c r="BG53" s="30"/>
-      <c r="BH53" s="30"/>
-      <c r="BI53" s="30"/>
-      <c r="BJ53" s="30"/>
-      <c r="BK53" s="30"/>
+      <c r="AL53" s="34"/>
+      <c r="AM53" s="34"/>
+      <c r="AN53" s="34"/>
+      <c r="AO53" s="34"/>
+      <c r="AP53" s="34"/>
+      <c r="AQ53" s="34"/>
+      <c r="AR53" s="34"/>
+      <c r="AS53" s="34"/>
+      <c r="AU53" s="34"/>
+      <c r="AV53" s="34"/>
+      <c r="AW53" s="34"/>
+      <c r="AX53" s="34"/>
+      <c r="AY53" s="34"/>
+      <c r="AZ53" s="34"/>
+      <c r="BA53" s="34"/>
+      <c r="BB53" s="34"/>
+      <c r="BD53" s="34"/>
+      <c r="BE53" s="34"/>
+      <c r="BF53" s="34"/>
+      <c r="BG53" s="34"/>
+      <c r="BH53" s="34"/>
+      <c r="BI53" s="34"/>
+      <c r="BJ53" s="34"/>
+      <c r="BK53" s="34"/>
     </row>
     <row r="54" spans="29:72">
-      <c r="AL54" s="30"/>
-      <c r="AM54" s="30"/>
-      <c r="AN54" s="30"/>
-      <c r="AO54" s="30"/>
-      <c r="AP54" s="30"/>
-      <c r="AQ54" s="30"/>
-      <c r="AR54" s="30"/>
-      <c r="AS54" s="30"/>
-      <c r="AU54" s="30"/>
-      <c r="AV54" s="30"/>
-      <c r="AW54" s="30"/>
-      <c r="AX54" s="30"/>
-      <c r="AY54" s="30"/>
-      <c r="AZ54" s="30"/>
-      <c r="BA54" s="30"/>
-      <c r="BB54" s="30"/>
-      <c r="BD54" s="30"/>
-      <c r="BE54" s="30"/>
-      <c r="BF54" s="30"/>
-      <c r="BG54" s="30"/>
-      <c r="BH54" s="30"/>
-      <c r="BI54" s="30"/>
-      <c r="BJ54" s="30"/>
-      <c r="BK54" s="30"/>
-      <c r="BM54" s="59"/>
-      <c r="BN54" s="60"/>
-      <c r="BO54" s="60"/>
-      <c r="BP54" s="60"/>
-      <c r="BQ54" s="55">
+      <c r="AL54" s="34"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="34"/>
+      <c r="AO54" s="34"/>
+      <c r="AP54" s="34"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="34"/>
+      <c r="AS54" s="34"/>
+      <c r="AU54" s="34"/>
+      <c r="AV54" s="34"/>
+      <c r="AW54" s="34"/>
+      <c r="AX54" s="34"/>
+      <c r="AY54" s="34"/>
+      <c r="AZ54" s="34"/>
+      <c r="BA54" s="34"/>
+      <c r="BB54" s="34"/>
+      <c r="BD54" s="34"/>
+      <c r="BE54" s="34"/>
+      <c r="BF54" s="34"/>
+      <c r="BG54" s="34"/>
+      <c r="BH54" s="34"/>
+      <c r="BI54" s="34"/>
+      <c r="BJ54" s="34"/>
+      <c r="BK54" s="34"/>
+      <c r="BM54" s="55"/>
+      <c r="BN54" s="56"/>
+      <c r="BO54" s="56"/>
+      <c r="BP54" s="56"/>
+      <c r="BQ54" s="66">
         <v>2</v>
       </c>
-      <c r="BR54" s="55"/>
-      <c r="BS54" s="55">
+      <c r="BR54" s="66"/>
+      <c r="BS54" s="66">
         <v>4</v>
       </c>
-      <c r="BT54" s="63"/>
+      <c r="BT54" s="67"/>
     </row>
     <row r="55" spans="29:72">
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
-      <c r="AR55" s="30"/>
-      <c r="AS55" s="30"/>
+      <c r="AL55" s="34"/>
+      <c r="AM55" s="34"/>
+      <c r="AN55" s="34"/>
+      <c r="AO55" s="34"/>
+      <c r="AP55" s="34"/>
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="34"/>
+      <c r="AS55" s="34"/>
       <c r="AU55" s="29"/>
       <c r="AV55" s="29"/>
       <c r="AW55" s="29"/>
@@ -5257,32 +5511,32 @@
       <c r="AZ55" s="29"/>
       <c r="BA55" s="29"/>
       <c r="BB55" s="29"/>
-      <c r="BD55" s="30"/>
-      <c r="BE55" s="30"/>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="30"/>
-      <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
-      <c r="BJ55" s="30"/>
-      <c r="BK55" s="30"/>
-      <c r="BM55" s="61"/>
-      <c r="BN55" s="62"/>
-      <c r="BO55" s="62"/>
-      <c r="BP55" s="62"/>
-      <c r="BQ55" s="57"/>
-      <c r="BR55" s="57"/>
-      <c r="BS55" s="57"/>
-      <c r="BT55" s="64"/>
+      <c r="BD55" s="34"/>
+      <c r="BE55" s="34"/>
+      <c r="BF55" s="34"/>
+      <c r="BG55" s="34"/>
+      <c r="BH55" s="34"/>
+      <c r="BI55" s="34"/>
+      <c r="BJ55" s="34"/>
+      <c r="BK55" s="34"/>
+      <c r="BM55" s="57"/>
+      <c r="BN55" s="58"/>
+      <c r="BO55" s="58"/>
+      <c r="BP55" s="58"/>
+      <c r="BQ55" s="68"/>
+      <c r="BR55" s="68"/>
+      <c r="BS55" s="68"/>
+      <c r="BT55" s="69"/>
     </row>
     <row r="56" spans="29:72">
-      <c r="AL56" s="30"/>
-      <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-      <c r="AO56" s="30"/>
-      <c r="AP56" s="30"/>
-      <c r="AQ56" s="30"/>
-      <c r="AR56" s="30"/>
-      <c r="AS56" s="30"/>
+      <c r="AL56" s="34"/>
+      <c r="AM56" s="34"/>
+      <c r="AN56" s="34"/>
+      <c r="AO56" s="34"/>
+      <c r="AP56" s="34"/>
+      <c r="AQ56" s="34"/>
+      <c r="AR56" s="34"/>
+      <c r="AS56" s="34"/>
       <c r="AU56" s="29"/>
       <c r="AV56" s="29"/>
       <c r="AW56" s="29"/>
@@ -5291,32 +5545,32 @@
       <c r="AZ56" s="29"/>
       <c r="BA56" s="29"/>
       <c r="BB56" s="29"/>
-      <c r="BD56" s="30"/>
-      <c r="BE56" s="30"/>
-      <c r="BF56" s="30"/>
-      <c r="BG56" s="30"/>
-      <c r="BH56" s="30"/>
-      <c r="BI56" s="30"/>
-      <c r="BJ56" s="30"/>
-      <c r="BK56" s="30"/>
-      <c r="BM56" s="61"/>
-      <c r="BN56" s="62"/>
-      <c r="BO56" s="62"/>
-      <c r="BP56" s="62"/>
-      <c r="BQ56" s="57"/>
-      <c r="BR56" s="57"/>
-      <c r="BS56" s="57"/>
-      <c r="BT56" s="64"/>
+      <c r="BD56" s="34"/>
+      <c r="BE56" s="34"/>
+      <c r="BF56" s="34"/>
+      <c r="BG56" s="34"/>
+      <c r="BH56" s="34"/>
+      <c r="BI56" s="34"/>
+      <c r="BJ56" s="34"/>
+      <c r="BK56" s="34"/>
+      <c r="BM56" s="57"/>
+      <c r="BN56" s="58"/>
+      <c r="BO56" s="58"/>
+      <c r="BP56" s="58"/>
+      <c r="BQ56" s="68"/>
+      <c r="BR56" s="68"/>
+      <c r="BS56" s="68"/>
+      <c r="BT56" s="69"/>
     </row>
     <row r="57" spans="29:72">
-      <c r="BD57" s="30"/>
-      <c r="BE57" s="30"/>
-      <c r="BF57" s="30"/>
-      <c r="BG57" s="30"/>
-      <c r="BH57" s="30"/>
-      <c r="BI57" s="30"/>
-      <c r="BJ57" s="30"/>
-      <c r="BK57" s="30"/>
+      <c r="BD57" s="34"/>
+      <c r="BE57" s="34"/>
+      <c r="BF57" s="34"/>
+      <c r="BG57" s="34"/>
+      <c r="BH57" s="34"/>
+      <c r="BI57" s="34"/>
+      <c r="BJ57" s="34"/>
+      <c r="BK57" s="34"/>
       <c r="BM57" s="10" t="s">
         <v>8</v>
       </c>
@@ -5341,148 +5595,148 @@
       </c>
     </row>
     <row r="58" spans="29:72" ht="15" customHeight="1">
-      <c r="AL58" s="30" t="s">
+      <c r="AL58" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AM58" s="30"/>
-      <c r="AN58" s="30"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="30"/>
-      <c r="AQ58" s="30"/>
-      <c r="AR58" s="30"/>
-      <c r="AS58" s="30"/>
-      <c r="BD58" s="30"/>
-      <c r="BE58" s="30"/>
-      <c r="BF58" s="30"/>
-      <c r="BG58" s="30"/>
-      <c r="BH58" s="30"/>
-      <c r="BI58" s="30"/>
-      <c r="BJ58" s="30"/>
-      <c r="BK58" s="30"/>
+      <c r="AM58" s="34"/>
+      <c r="AN58" s="34"/>
+      <c r="AO58" s="34"/>
+      <c r="AP58" s="34"/>
+      <c r="AQ58" s="34"/>
+      <c r="AR58" s="34"/>
+      <c r="AS58" s="34"/>
+      <c r="BD58" s="34"/>
+      <c r="BE58" s="34"/>
+      <c r="BF58" s="34"/>
+      <c r="BG58" s="34"/>
+      <c r="BH58" s="34"/>
+      <c r="BI58" s="34"/>
+      <c r="BJ58" s="34"/>
+      <c r="BK58" s="34"/>
     </row>
     <row r="59" spans="29:72" ht="16">
-      <c r="AL59" s="30"/>
-      <c r="AM59" s="30"/>
-      <c r="AN59" s="30"/>
-      <c r="AO59" s="30"/>
-      <c r="AP59" s="30"/>
-      <c r="AQ59" s="30"/>
-      <c r="AR59" s="30"/>
-      <c r="AS59" s="30"/>
-      <c r="BD59" s="30"/>
-      <c r="BE59" s="30"/>
-      <c r="BF59" s="30"/>
-      <c r="BG59" s="30"/>
-      <c r="BH59" s="30"/>
-      <c r="BI59" s="30"/>
-      <c r="BJ59" s="30"/>
-      <c r="BK59" s="30"/>
-      <c r="BM59" s="31" t="s">
+      <c r="AL59" s="34"/>
+      <c r="AM59" s="34"/>
+      <c r="AN59" s="34"/>
+      <c r="AO59" s="34"/>
+      <c r="AP59" s="34"/>
+      <c r="AQ59" s="34"/>
+      <c r="AR59" s="34"/>
+      <c r="AS59" s="34"/>
+      <c r="BD59" s="34"/>
+      <c r="BE59" s="34"/>
+      <c r="BF59" s="34"/>
+      <c r="BG59" s="34"/>
+      <c r="BH59" s="34"/>
+      <c r="BI59" s="34"/>
+      <c r="BJ59" s="34"/>
+      <c r="BK59" s="34"/>
+      <c r="BM59" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="BN59" s="31"/>
-      <c r="BO59" s="31"/>
-      <c r="BP59" s="31"/>
-      <c r="BQ59" s="31"/>
-      <c r="BR59" s="31"/>
-      <c r="BS59" s="31"/>
-      <c r="BT59" s="31"/>
+      <c r="BN59" s="35"/>
+      <c r="BO59" s="35"/>
+      <c r="BP59" s="35"/>
+      <c r="BQ59" s="35"/>
+      <c r="BR59" s="35"/>
+      <c r="BS59" s="35"/>
+      <c r="BT59" s="35"/>
     </row>
     <row r="60" spans="29:72">
-      <c r="AL60" s="30"/>
-      <c r="AM60" s="30"/>
-      <c r="AN60" s="30"/>
-      <c r="AO60" s="30"/>
-      <c r="AP60" s="30"/>
-      <c r="AQ60" s="30"/>
-      <c r="AR60" s="30"/>
-      <c r="AS60" s="30"/>
-      <c r="BD60" s="30"/>
-      <c r="BE60" s="30"/>
-      <c r="BF60" s="30"/>
-      <c r="BG60" s="30"/>
-      <c r="BH60" s="30"/>
-      <c r="BI60" s="30"/>
-      <c r="BJ60" s="30"/>
-      <c r="BK60" s="30"/>
+      <c r="AL60" s="34"/>
+      <c r="AM60" s="34"/>
+      <c r="AN60" s="34"/>
+      <c r="AO60" s="34"/>
+      <c r="AP60" s="34"/>
+      <c r="AQ60" s="34"/>
+      <c r="AR60" s="34"/>
+      <c r="AS60" s="34"/>
+      <c r="BD60" s="34"/>
+      <c r="BE60" s="34"/>
+      <c r="BF60" s="34"/>
+      <c r="BG60" s="34"/>
+      <c r="BH60" s="34"/>
+      <c r="BI60" s="34"/>
+      <c r="BJ60" s="34"/>
+      <c r="BK60" s="34"/>
     </row>
     <row r="61" spans="29:72" ht="15" customHeight="1">
-      <c r="AL61" s="30"/>
-      <c r="AM61" s="30"/>
-      <c r="AN61" s="30"/>
-      <c r="AO61" s="30"/>
-      <c r="AP61" s="30"/>
-      <c r="AQ61" s="30"/>
-      <c r="AR61" s="30"/>
-      <c r="AS61" s="30"/>
-      <c r="BD61" s="30"/>
-      <c r="BE61" s="30"/>
-      <c r="BF61" s="30"/>
-      <c r="BG61" s="30"/>
-      <c r="BH61" s="30"/>
-      <c r="BI61" s="30"/>
-      <c r="BJ61" s="30"/>
-      <c r="BK61" s="30"/>
-      <c r="BM61" s="39">
+      <c r="AL61" s="34"/>
+      <c r="AM61" s="34"/>
+      <c r="AN61" s="34"/>
+      <c r="AO61" s="34"/>
+      <c r="AP61" s="34"/>
+      <c r="AQ61" s="34"/>
+      <c r="AR61" s="34"/>
+      <c r="AS61" s="34"/>
+      <c r="BD61" s="34"/>
+      <c r="BE61" s="34"/>
+      <c r="BF61" s="34"/>
+      <c r="BG61" s="34"/>
+      <c r="BH61" s="34"/>
+      <c r="BI61" s="34"/>
+      <c r="BJ61" s="34"/>
+      <c r="BK61" s="34"/>
+      <c r="BM61" s="36">
         <v>1</v>
       </c>
-      <c r="BN61" s="40"/>
-      <c r="BO61" s="43" t="s">
+      <c r="BN61" s="37"/>
+      <c r="BO61" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BP61" s="40"/>
-      <c r="BQ61" s="44">
+      <c r="BP61" s="37"/>
+      <c r="BQ61" s="41">
         <v>4</v>
       </c>
-      <c r="BR61" s="44"/>
-      <c r="BS61" s="44">
+      <c r="BR61" s="41"/>
+      <c r="BS61" s="41">
         <v>5</v>
       </c>
-      <c r="BT61" s="46"/>
+      <c r="BT61" s="43"/>
     </row>
     <row r="62" spans="29:72" ht="15" customHeight="1">
-      <c r="AL62" s="30"/>
-      <c r="AM62" s="30"/>
-      <c r="AN62" s="30"/>
-      <c r="AO62" s="30"/>
-      <c r="AP62" s="30"/>
-      <c r="AQ62" s="30"/>
-      <c r="AR62" s="30"/>
-      <c r="AS62" s="30"/>
-      <c r="BD62" s="30"/>
-      <c r="BE62" s="30"/>
-      <c r="BF62" s="30"/>
-      <c r="BG62" s="30"/>
-      <c r="BH62" s="30"/>
-      <c r="BI62" s="30"/>
-      <c r="BJ62" s="30"/>
-      <c r="BK62" s="30"/>
-      <c r="BM62" s="41"/>
-      <c r="BN62" s="42"/>
-      <c r="BO62" s="42"/>
-      <c r="BP62" s="42"/>
-      <c r="BQ62" s="45"/>
-      <c r="BR62" s="45"/>
-      <c r="BS62" s="45"/>
-      <c r="BT62" s="47"/>
+      <c r="AL62" s="34"/>
+      <c r="AM62" s="34"/>
+      <c r="AN62" s="34"/>
+      <c r="AO62" s="34"/>
+      <c r="AP62" s="34"/>
+      <c r="AQ62" s="34"/>
+      <c r="AR62" s="34"/>
+      <c r="AS62" s="34"/>
+      <c r="BD62" s="34"/>
+      <c r="BE62" s="34"/>
+      <c r="BF62" s="34"/>
+      <c r="BG62" s="34"/>
+      <c r="BH62" s="34"/>
+      <c r="BI62" s="34"/>
+      <c r="BJ62" s="34"/>
+      <c r="BK62" s="34"/>
+      <c r="BM62" s="38"/>
+      <c r="BN62" s="39"/>
+      <c r="BO62" s="39"/>
+      <c r="BP62" s="39"/>
+      <c r="BQ62" s="42"/>
+      <c r="BR62" s="42"/>
+      <c r="BS62" s="42"/>
+      <c r="BT62" s="44"/>
     </row>
     <row r="63" spans="29:72" ht="15" customHeight="1">
-      <c r="BD63" s="30"/>
-      <c r="BE63" s="30"/>
-      <c r="BF63" s="30"/>
-      <c r="BG63" s="30"/>
-      <c r="BH63" s="30"/>
-      <c r="BI63" s="30"/>
-      <c r="BJ63" s="30"/>
-      <c r="BK63" s="30"/>
-      <c r="BM63" s="41"/>
-      <c r="BN63" s="42"/>
-      <c r="BO63" s="42"/>
-      <c r="BP63" s="42"/>
-      <c r="BQ63" s="45"/>
-      <c r="BR63" s="45"/>
-      <c r="BS63" s="45"/>
-      <c r="BT63" s="47"/>
+      <c r="BD63" s="34"/>
+      <c r="BE63" s="34"/>
+      <c r="BF63" s="34"/>
+      <c r="BG63" s="34"/>
+      <c r="BH63" s="34"/>
+      <c r="BI63" s="34"/>
+      <c r="BJ63" s="34"/>
+      <c r="BK63" s="34"/>
+      <c r="BM63" s="38"/>
+      <c r="BN63" s="39"/>
+      <c r="BO63" s="39"/>
+      <c r="BP63" s="39"/>
+      <c r="BQ63" s="42"/>
+      <c r="BR63" s="42"/>
+      <c r="BS63" s="42"/>
+      <c r="BT63" s="44"/>
     </row>
     <row r="64" spans="29:72">
       <c r="BM64" s="10"/>
@@ -5499,89 +5753,89 @@
       </c>
     </row>
     <row r="66" spans="2:72" ht="15" customHeight="1">
-      <c r="BM66" s="30" t="s">
+      <c r="BM66" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="BN66" s="30"/>
-      <c r="BO66" s="30"/>
-      <c r="BP66" s="30"/>
-      <c r="BQ66" s="30"/>
-      <c r="BR66" s="30"/>
-      <c r="BS66" s="30"/>
-      <c r="BT66" s="30"/>
+      <c r="BN66" s="34"/>
+      <c r="BO66" s="34"/>
+      <c r="BP66" s="34"/>
+      <c r="BQ66" s="34"/>
+      <c r="BR66" s="34"/>
+      <c r="BS66" s="34"/>
+      <c r="BT66" s="34"/>
     </row>
     <row r="67" spans="2:72">
-      <c r="BM67" s="30"/>
-      <c r="BN67" s="30"/>
-      <c r="BO67" s="30"/>
-      <c r="BP67" s="30"/>
-      <c r="BQ67" s="30"/>
-      <c r="BR67" s="30"/>
-      <c r="BS67" s="30"/>
-      <c r="BT67" s="30"/>
+      <c r="BM67" s="34"/>
+      <c r="BN67" s="34"/>
+      <c r="BO67" s="34"/>
+      <c r="BP67" s="34"/>
+      <c r="BQ67" s="34"/>
+      <c r="BR67" s="34"/>
+      <c r="BS67" s="34"/>
+      <c r="BT67" s="34"/>
     </row>
     <row r="68" spans="2:72">
-      <c r="BM68" s="30"/>
-      <c r="BN68" s="30"/>
-      <c r="BO68" s="30"/>
-      <c r="BP68" s="30"/>
-      <c r="BQ68" s="30"/>
-      <c r="BR68" s="30"/>
-      <c r="BS68" s="30"/>
-      <c r="BT68" s="30"/>
+      <c r="BM68" s="34"/>
+      <c r="BN68" s="34"/>
+      <c r="BO68" s="34"/>
+      <c r="BP68" s="34"/>
+      <c r="BQ68" s="34"/>
+      <c r="BR68" s="34"/>
+      <c r="BS68" s="34"/>
+      <c r="BT68" s="34"/>
     </row>
     <row r="69" spans="2:72">
-      <c r="BM69" s="30"/>
-      <c r="BN69" s="30"/>
-      <c r="BO69" s="30"/>
-      <c r="BP69" s="30"/>
-      <c r="BQ69" s="30"/>
-      <c r="BR69" s="30"/>
-      <c r="BS69" s="30"/>
-      <c r="BT69" s="30"/>
+      <c r="BM69" s="34"/>
+      <c r="BN69" s="34"/>
+      <c r="BO69" s="34"/>
+      <c r="BP69" s="34"/>
+      <c r="BQ69" s="34"/>
+      <c r="BR69" s="34"/>
+      <c r="BS69" s="34"/>
+      <c r="BT69" s="34"/>
     </row>
     <row r="70" spans="2:72">
-      <c r="BM70" s="30"/>
-      <c r="BN70" s="30"/>
-      <c r="BO70" s="30"/>
-      <c r="BP70" s="30"/>
-      <c r="BQ70" s="30"/>
-      <c r="BR70" s="30"/>
-      <c r="BS70" s="30"/>
-      <c r="BT70" s="30"/>
+      <c r="BM70" s="34"/>
+      <c r="BN70" s="34"/>
+      <c r="BO70" s="34"/>
+      <c r="BP70" s="34"/>
+      <c r="BQ70" s="34"/>
+      <c r="BR70" s="34"/>
+      <c r="BS70" s="34"/>
+      <c r="BT70" s="34"/>
     </row>
     <row r="71" spans="2:72">
-      <c r="BM71" s="30"/>
-      <c r="BN71" s="30"/>
-      <c r="BO71" s="30"/>
-      <c r="BP71" s="30"/>
-      <c r="BQ71" s="30"/>
-      <c r="BR71" s="30"/>
-      <c r="BS71" s="30"/>
-      <c r="BT71" s="30"/>
+      <c r="BM71" s="34"/>
+      <c r="BN71" s="34"/>
+      <c r="BO71" s="34"/>
+      <c r="BP71" s="34"/>
+      <c r="BQ71" s="34"/>
+      <c r="BR71" s="34"/>
+      <c r="BS71" s="34"/>
+      <c r="BT71" s="34"/>
     </row>
     <row r="72" spans="2:72">
-      <c r="BM72" s="30"/>
-      <c r="BN72" s="30"/>
-      <c r="BO72" s="30"/>
-      <c r="BP72" s="30"/>
-      <c r="BQ72" s="30"/>
-      <c r="BR72" s="30"/>
-      <c r="BS72" s="30"/>
-      <c r="BT72" s="30"/>
+      <c r="BM72" s="34"/>
+      <c r="BN72" s="34"/>
+      <c r="BO72" s="34"/>
+      <c r="BP72" s="34"/>
+      <c r="BQ72" s="34"/>
+      <c r="BR72" s="34"/>
+      <c r="BS72" s="34"/>
+      <c r="BT72" s="34"/>
     </row>
     <row r="73" spans="2:72">
       <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BM73" s="30"/>
-      <c r="BN73" s="30"/>
-      <c r="BO73" s="30"/>
-      <c r="BP73" s="30"/>
-      <c r="BQ73" s="30"/>
-      <c r="BR73" s="30"/>
-      <c r="BS73" s="30"/>
-      <c r="BT73" s="30"/>
+      <c r="BM73" s="34"/>
+      <c r="BN73" s="34"/>
+      <c r="BO73" s="34"/>
+      <c r="BP73" s="34"/>
+      <c r="BQ73" s="34"/>
+      <c r="BR73" s="34"/>
+      <c r="BS73" s="34"/>
+      <c r="BT73" s="34"/>
     </row>
     <row r="74" spans="2:72">
       <c r="BM74" s="29"/>
@@ -5625,6 +5879,219 @@
     </row>
   </sheetData>
   <mergeCells count="237">
+    <mergeCell ref="AI33:AJ35"/>
+    <mergeCell ref="AG33:AH35"/>
+    <mergeCell ref="AE33:AF35"/>
+    <mergeCell ref="AC38:AJ38"/>
+    <mergeCell ref="AC45:AJ51"/>
+    <mergeCell ref="AW5:AX7"/>
+    <mergeCell ref="AY5:AZ7"/>
+    <mergeCell ref="BA5:BB7"/>
+    <mergeCell ref="AL3:AS3"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AP5:AQ7"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="F12:G14"/>
+    <mergeCell ref="H12:I14"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="T5:U7"/>
+    <mergeCell ref="V5:W7"/>
+    <mergeCell ref="X5:Y7"/>
+    <mergeCell ref="Z5:AA7"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="T12:U14"/>
+    <mergeCell ref="V12:W14"/>
+    <mergeCell ref="X12:Y14"/>
+    <mergeCell ref="Z12:AA14"/>
+    <mergeCell ref="BD24:BK24"/>
+    <mergeCell ref="BD26:BE28"/>
+    <mergeCell ref="BF26:BG28"/>
+    <mergeCell ref="BH26:BI28"/>
+    <mergeCell ref="BJ26:BK28"/>
+    <mergeCell ref="AU19:AV21"/>
+    <mergeCell ref="AW19:AX21"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="AU12:AV14"/>
+    <mergeCell ref="AW12:AX14"/>
+    <mergeCell ref="AY12:AZ14"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="K5:L7"/>
+    <mergeCell ref="M5:N7"/>
+    <mergeCell ref="O5:P7"/>
+    <mergeCell ref="Q5:R7"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="AU3:BB3"/>
+    <mergeCell ref="AU5:AV7"/>
+    <mergeCell ref="AP12:AQ14"/>
+    <mergeCell ref="AR12:AS14"/>
+    <mergeCell ref="T32:AA32"/>
+    <mergeCell ref="B24:I27"/>
+    <mergeCell ref="K12:L14"/>
+    <mergeCell ref="M12:N14"/>
+    <mergeCell ref="O12:P14"/>
+    <mergeCell ref="Q12:R14"/>
+    <mergeCell ref="AC12:AD14"/>
+    <mergeCell ref="AE12:AF14"/>
+    <mergeCell ref="AG12:AH14"/>
+    <mergeCell ref="AI12:AJ14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="H19:I21"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="T26:U28"/>
+    <mergeCell ref="V26:W28"/>
+    <mergeCell ref="X26:Y28"/>
+    <mergeCell ref="Z26:AA28"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="AC10:AJ10"/>
+    <mergeCell ref="AL10:AS10"/>
+    <mergeCell ref="AU10:BB10"/>
+    <mergeCell ref="BD10:BK10"/>
+    <mergeCell ref="BM10:BT10"/>
+    <mergeCell ref="AC33:AD35"/>
+    <mergeCell ref="BM52:BT52"/>
+    <mergeCell ref="BM54:BN56"/>
+    <mergeCell ref="BO54:BP56"/>
+    <mergeCell ref="BQ54:BR56"/>
+    <mergeCell ref="BS54:BT56"/>
+    <mergeCell ref="BM40:BN42"/>
+    <mergeCell ref="BO40:BP42"/>
+    <mergeCell ref="BQ40:BR42"/>
+    <mergeCell ref="BS40:BT42"/>
+    <mergeCell ref="BM45:BT45"/>
+    <mergeCell ref="BM47:BN49"/>
+    <mergeCell ref="BO47:BP49"/>
+    <mergeCell ref="BQ47:BR49"/>
+    <mergeCell ref="BA12:BB14"/>
+    <mergeCell ref="BD12:BE14"/>
+    <mergeCell ref="BF12:BG14"/>
+    <mergeCell ref="AL12:AM14"/>
+    <mergeCell ref="AN12:AO14"/>
+    <mergeCell ref="BQ19:BR21"/>
+    <mergeCell ref="BS19:BT21"/>
+    <mergeCell ref="BM24:BT24"/>
+    <mergeCell ref="BM26:BN28"/>
+    <mergeCell ref="BO26:BP28"/>
+    <mergeCell ref="BQ26:BR28"/>
+    <mergeCell ref="BS26:BT28"/>
+    <mergeCell ref="BM61:BN63"/>
+    <mergeCell ref="BO61:BP63"/>
+    <mergeCell ref="BQ61:BR63"/>
+    <mergeCell ref="BS61:BT63"/>
+    <mergeCell ref="BM59:BT59"/>
+    <mergeCell ref="BD45:BK45"/>
+    <mergeCell ref="BD47:BE49"/>
+    <mergeCell ref="BF47:BG49"/>
+    <mergeCell ref="BH47:BI49"/>
+    <mergeCell ref="BJ47:BK49"/>
+    <mergeCell ref="BM3:BT3"/>
+    <mergeCell ref="BM5:BN7"/>
+    <mergeCell ref="BO5:BP7"/>
+    <mergeCell ref="BQ5:BR7"/>
+    <mergeCell ref="BS5:BT7"/>
+    <mergeCell ref="BM17:BT17"/>
+    <mergeCell ref="BM12:BN14"/>
+    <mergeCell ref="BO12:BP14"/>
+    <mergeCell ref="BQ12:BR14"/>
+    <mergeCell ref="BS12:BT14"/>
+    <mergeCell ref="BS47:BT49"/>
+    <mergeCell ref="BM31:BT31"/>
+    <mergeCell ref="BM33:BN35"/>
+    <mergeCell ref="BO33:BP35"/>
+    <mergeCell ref="BQ33:BR35"/>
+    <mergeCell ref="BS33:BT35"/>
+    <mergeCell ref="BM38:BT38"/>
+    <mergeCell ref="BM19:BN21"/>
+    <mergeCell ref="BO19:BP21"/>
+    <mergeCell ref="BD3:BK3"/>
+    <mergeCell ref="BD5:BE7"/>
+    <mergeCell ref="BF5:BG7"/>
+    <mergeCell ref="BH5:BI7"/>
+    <mergeCell ref="BJ5:BK7"/>
+    <mergeCell ref="BD17:BK17"/>
+    <mergeCell ref="BH12:BI14"/>
+    <mergeCell ref="BJ12:BK14"/>
+    <mergeCell ref="BD19:BE21"/>
+    <mergeCell ref="BF19:BG21"/>
+    <mergeCell ref="BH19:BI21"/>
+    <mergeCell ref="BJ19:BK21"/>
+    <mergeCell ref="AL40:AM42"/>
+    <mergeCell ref="AN40:AO42"/>
+    <mergeCell ref="AP40:AQ42"/>
+    <mergeCell ref="AR40:AS42"/>
+    <mergeCell ref="AU40:AV42"/>
+    <mergeCell ref="AW40:AX42"/>
+    <mergeCell ref="AY40:AZ42"/>
+    <mergeCell ref="BA40:BB42"/>
+    <mergeCell ref="BD31:BK31"/>
+    <mergeCell ref="BD33:BE35"/>
+    <mergeCell ref="BF33:BG35"/>
+    <mergeCell ref="BH33:BI35"/>
+    <mergeCell ref="BJ33:BK35"/>
+    <mergeCell ref="BD38:BK38"/>
+    <mergeCell ref="AU31:BB31"/>
+    <mergeCell ref="AU33:AV35"/>
+    <mergeCell ref="AW33:AX35"/>
+    <mergeCell ref="AY33:AZ35"/>
+    <mergeCell ref="BA33:BB35"/>
+    <mergeCell ref="AU38:BB38"/>
+    <mergeCell ref="BD40:BE42"/>
+    <mergeCell ref="BF40:BG42"/>
+    <mergeCell ref="BH40:BI42"/>
+    <mergeCell ref="BJ40:BK42"/>
+    <mergeCell ref="AI40:AJ42"/>
+    <mergeCell ref="AU17:BB17"/>
+    <mergeCell ref="AL31:AS31"/>
+    <mergeCell ref="AL33:AM35"/>
+    <mergeCell ref="AN33:AO35"/>
+    <mergeCell ref="AP33:AQ35"/>
+    <mergeCell ref="AR33:AS35"/>
+    <mergeCell ref="AL38:AS38"/>
+    <mergeCell ref="AL19:AM21"/>
+    <mergeCell ref="AN19:AO21"/>
+    <mergeCell ref="AP19:AQ21"/>
+    <mergeCell ref="AR19:AS21"/>
+    <mergeCell ref="AL24:AS24"/>
+    <mergeCell ref="AL26:AM28"/>
+    <mergeCell ref="AN26:AO28"/>
+    <mergeCell ref="AP26:AQ28"/>
+    <mergeCell ref="AR26:AS28"/>
+    <mergeCell ref="AY19:AZ21"/>
+    <mergeCell ref="BA19:BB21"/>
+    <mergeCell ref="AU24:BB24"/>
+    <mergeCell ref="AU26:AV28"/>
+    <mergeCell ref="AW26:AX28"/>
+    <mergeCell ref="AY26:AZ28"/>
+    <mergeCell ref="BA26:BB28"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M19:N21"/>
+    <mergeCell ref="O19:P21"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="K24:R32"/>
+    <mergeCell ref="AC40:AD42"/>
+    <mergeCell ref="AE40:AF42"/>
+    <mergeCell ref="AG40:AH42"/>
+    <mergeCell ref="T19:U21"/>
+    <mergeCell ref="V19:W21"/>
+    <mergeCell ref="X19:Y21"/>
+    <mergeCell ref="Z19:AA21"/>
+    <mergeCell ref="T39:AA47"/>
+    <mergeCell ref="T33:AA33"/>
+    <mergeCell ref="T34:AA34"/>
+    <mergeCell ref="T35:AA35"/>
+    <mergeCell ref="T36:AA36"/>
+    <mergeCell ref="T37:AA37"/>
     <mergeCell ref="AL45:AS56"/>
     <mergeCell ref="AC3:AJ3"/>
     <mergeCell ref="BD52:BK63"/>
@@ -5649,219 +6116,6 @@
     <mergeCell ref="AC24:AJ24"/>
     <mergeCell ref="AR5:AS7"/>
     <mergeCell ref="AL17:AS17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M19:N21"/>
-    <mergeCell ref="O19:P21"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="K24:R32"/>
-    <mergeCell ref="AC40:AD42"/>
-    <mergeCell ref="AE40:AF42"/>
-    <mergeCell ref="AG40:AH42"/>
-    <mergeCell ref="AI40:AJ42"/>
-    <mergeCell ref="AU17:BB17"/>
-    <mergeCell ref="AL31:AS31"/>
-    <mergeCell ref="AL33:AM35"/>
-    <mergeCell ref="AN33:AO35"/>
-    <mergeCell ref="AP33:AQ35"/>
-    <mergeCell ref="AR33:AS35"/>
-    <mergeCell ref="AL38:AS38"/>
-    <mergeCell ref="AL19:AM21"/>
-    <mergeCell ref="AN19:AO21"/>
-    <mergeCell ref="AP19:AQ21"/>
-    <mergeCell ref="AR19:AS21"/>
-    <mergeCell ref="AL24:AS24"/>
-    <mergeCell ref="AL26:AM28"/>
-    <mergeCell ref="AN26:AO28"/>
-    <mergeCell ref="AP26:AQ28"/>
-    <mergeCell ref="AR26:AS28"/>
-    <mergeCell ref="AY19:AZ21"/>
-    <mergeCell ref="BA19:BB21"/>
-    <mergeCell ref="AU24:BB24"/>
-    <mergeCell ref="AU26:AV28"/>
-    <mergeCell ref="AW26:AX28"/>
-    <mergeCell ref="AY26:AZ28"/>
-    <mergeCell ref="BA26:BB28"/>
-    <mergeCell ref="AL40:AM42"/>
-    <mergeCell ref="AN40:AO42"/>
-    <mergeCell ref="AP40:AQ42"/>
-    <mergeCell ref="AR40:AS42"/>
-    <mergeCell ref="AU40:AV42"/>
-    <mergeCell ref="AW40:AX42"/>
-    <mergeCell ref="AY40:AZ42"/>
-    <mergeCell ref="BA40:BB42"/>
-    <mergeCell ref="BD31:BK31"/>
-    <mergeCell ref="BD33:BE35"/>
-    <mergeCell ref="BF33:BG35"/>
-    <mergeCell ref="BH33:BI35"/>
-    <mergeCell ref="BJ33:BK35"/>
-    <mergeCell ref="BD38:BK38"/>
-    <mergeCell ref="AU31:BB31"/>
-    <mergeCell ref="AU33:AV35"/>
-    <mergeCell ref="AW33:AX35"/>
-    <mergeCell ref="AY33:AZ35"/>
-    <mergeCell ref="BA33:BB35"/>
-    <mergeCell ref="AU38:BB38"/>
-    <mergeCell ref="BD3:BK3"/>
-    <mergeCell ref="BD5:BE7"/>
-    <mergeCell ref="BF5:BG7"/>
-    <mergeCell ref="BH5:BI7"/>
-    <mergeCell ref="BJ5:BK7"/>
-    <mergeCell ref="BD17:BK17"/>
-    <mergeCell ref="BH12:BI14"/>
-    <mergeCell ref="BJ12:BK14"/>
-    <mergeCell ref="BD19:BE21"/>
-    <mergeCell ref="BF19:BG21"/>
-    <mergeCell ref="BH19:BI21"/>
-    <mergeCell ref="BJ19:BK21"/>
-    <mergeCell ref="BD40:BE42"/>
-    <mergeCell ref="BF40:BG42"/>
-    <mergeCell ref="BH40:BI42"/>
-    <mergeCell ref="BJ40:BK42"/>
-    <mergeCell ref="BD45:BK45"/>
-    <mergeCell ref="BD47:BE49"/>
-    <mergeCell ref="BF47:BG49"/>
-    <mergeCell ref="BH47:BI49"/>
-    <mergeCell ref="BJ47:BK49"/>
-    <mergeCell ref="BM3:BT3"/>
-    <mergeCell ref="BM5:BN7"/>
-    <mergeCell ref="BO5:BP7"/>
-    <mergeCell ref="BQ5:BR7"/>
-    <mergeCell ref="BS5:BT7"/>
-    <mergeCell ref="BM17:BT17"/>
-    <mergeCell ref="BM12:BN14"/>
-    <mergeCell ref="BO12:BP14"/>
-    <mergeCell ref="BQ12:BR14"/>
-    <mergeCell ref="BS12:BT14"/>
-    <mergeCell ref="BS47:BT49"/>
-    <mergeCell ref="BM31:BT31"/>
-    <mergeCell ref="BM33:BN35"/>
-    <mergeCell ref="BO33:BP35"/>
-    <mergeCell ref="BQ33:BR35"/>
-    <mergeCell ref="BS33:BT35"/>
-    <mergeCell ref="BM38:BT38"/>
-    <mergeCell ref="BM19:BN21"/>
-    <mergeCell ref="BO19:BP21"/>
-    <mergeCell ref="BQ19:BR21"/>
-    <mergeCell ref="BS19:BT21"/>
-    <mergeCell ref="BM24:BT24"/>
-    <mergeCell ref="BM26:BN28"/>
-    <mergeCell ref="BO26:BP28"/>
-    <mergeCell ref="BQ26:BR28"/>
-    <mergeCell ref="BS26:BT28"/>
-    <mergeCell ref="BM61:BN63"/>
-    <mergeCell ref="BO61:BP63"/>
-    <mergeCell ref="BQ61:BR63"/>
-    <mergeCell ref="BS61:BT63"/>
-    <mergeCell ref="AC10:AJ10"/>
-    <mergeCell ref="AL10:AS10"/>
-    <mergeCell ref="AU10:BB10"/>
-    <mergeCell ref="BD10:BK10"/>
-    <mergeCell ref="BM10:BT10"/>
-    <mergeCell ref="AC33:AD35"/>
-    <mergeCell ref="BM52:BT52"/>
-    <mergeCell ref="BM54:BN56"/>
-    <mergeCell ref="BO54:BP56"/>
-    <mergeCell ref="BQ54:BR56"/>
-    <mergeCell ref="BS54:BT56"/>
-    <mergeCell ref="BM59:BT59"/>
-    <mergeCell ref="BM40:BN42"/>
-    <mergeCell ref="BO40:BP42"/>
-    <mergeCell ref="BQ40:BR42"/>
-    <mergeCell ref="BS40:BT42"/>
-    <mergeCell ref="BM45:BT45"/>
-    <mergeCell ref="BM47:BN49"/>
-    <mergeCell ref="BO47:BP49"/>
-    <mergeCell ref="BQ47:BR49"/>
-    <mergeCell ref="BA12:BB14"/>
-    <mergeCell ref="BD12:BE14"/>
-    <mergeCell ref="BF12:BG14"/>
-    <mergeCell ref="AL12:AM14"/>
-    <mergeCell ref="AN12:AO14"/>
-    <mergeCell ref="AP12:AQ14"/>
-    <mergeCell ref="AR12:AS14"/>
-    <mergeCell ref="T32:AA32"/>
-    <mergeCell ref="B24:I27"/>
-    <mergeCell ref="K12:L14"/>
-    <mergeCell ref="M12:N14"/>
-    <mergeCell ref="O12:P14"/>
-    <mergeCell ref="Q12:R14"/>
-    <mergeCell ref="AC12:AD14"/>
-    <mergeCell ref="AE12:AF14"/>
-    <mergeCell ref="AG12:AH14"/>
-    <mergeCell ref="AI12:AJ14"/>
-    <mergeCell ref="BD24:BK24"/>
-    <mergeCell ref="BD26:BE28"/>
-    <mergeCell ref="BF26:BG28"/>
-    <mergeCell ref="BH26:BI28"/>
-    <mergeCell ref="BJ26:BK28"/>
-    <mergeCell ref="AU19:AV21"/>
-    <mergeCell ref="AW19:AX21"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="H5:I7"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="AU12:AV14"/>
-    <mergeCell ref="AW12:AX14"/>
-    <mergeCell ref="AY12:AZ14"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="K5:L7"/>
-    <mergeCell ref="M5:N7"/>
-    <mergeCell ref="O5:P7"/>
-    <mergeCell ref="Q5:R7"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="AU3:BB3"/>
-    <mergeCell ref="AU5:AV7"/>
-    <mergeCell ref="AW5:AX7"/>
-    <mergeCell ref="AY5:AZ7"/>
-    <mergeCell ref="BA5:BB7"/>
-    <mergeCell ref="AL3:AS3"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AP5:AQ7"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="F12:G14"/>
-    <mergeCell ref="H12:I14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="F19:G21"/>
-    <mergeCell ref="H19:I21"/>
-    <mergeCell ref="T24:AA24"/>
-    <mergeCell ref="T26:U28"/>
-    <mergeCell ref="V26:W28"/>
-    <mergeCell ref="X26:Y28"/>
-    <mergeCell ref="Z26:AA28"/>
-    <mergeCell ref="T31:AA31"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="T5:U7"/>
-    <mergeCell ref="V5:W7"/>
-    <mergeCell ref="X5:Y7"/>
-    <mergeCell ref="Z5:AA7"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="T12:U14"/>
-    <mergeCell ref="V12:W14"/>
-    <mergeCell ref="X12:Y14"/>
-    <mergeCell ref="Z12:AA14"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="T19:U21"/>
-    <mergeCell ref="V19:W21"/>
-    <mergeCell ref="X19:Y21"/>
-    <mergeCell ref="Z19:AA21"/>
-    <mergeCell ref="T39:AA47"/>
-    <mergeCell ref="T33:AA33"/>
-    <mergeCell ref="T34:AA34"/>
-    <mergeCell ref="T35:AA35"/>
-    <mergeCell ref="T36:AA36"/>
-    <mergeCell ref="T37:AA37"/>
-    <mergeCell ref="AI33:AJ35"/>
-    <mergeCell ref="AG33:AH35"/>
-    <mergeCell ref="AE33:AF35"/>
-    <mergeCell ref="AC38:AJ38"/>
-    <mergeCell ref="AC45:AJ51"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5872,4 +6126,2733 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AX73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AH31" sqref="AH31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="31" customWidth="1"/>
+    <col min="3" max="11" width="3.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="31" customWidth="1"/>
+    <col min="13" max="21" width="3.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="1" customWidth="1"/>
+    <col min="24" max="31" width="3.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="3.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="50" width="3.5" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:50" ht="16">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+    </row>
+    <row r="3" spans="1:50" ht="16">
+      <c r="A3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+    </row>
+    <row r="4" spans="1:50" ht="16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+    </row>
+    <row r="5" spans="1:50" ht="15" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41">
+        <v>4</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41">
+        <v>4</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+    </row>
+    <row r="6" spans="1:50" ht="15" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+    </row>
+    <row r="7" spans="1:50" ht="15" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+    </row>
+    <row r="8" spans="1:50" s="26" customFormat="1" ht="16">
+      <c r="A8" s="74"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+    </row>
+    <row r="9" spans="1:50" ht="16">
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+    </row>
+    <row r="10" spans="1:50" ht="16">
+      <c r="A10" s="31"/>
+      <c r="C10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+    </row>
+    <row r="11" spans="1:50" ht="16">
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+    </row>
+    <row r="12" spans="1:50" ht="16">
+      <c r="B12" s="31">
+        <v>10</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="66">
+        <v>2</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66">
+        <v>4</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="16">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+    </row>
+    <row r="17" spans="1:50" ht="16">
+      <c r="C17" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+    </row>
+    <row r="18" spans="1:50" ht="16">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+    </row>
+    <row r="19" spans="1:50" ht="15" customHeight="1">
+      <c r="B19" s="31">
+        <v>20</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="31">
+        <v>201</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="50">
+        <v>0</v>
+      </c>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50">
+        <v>0</v>
+      </c>
+      <c r="T19" s="52"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="36">
+        <v>1</v>
+      </c>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="41">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="43"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+    </row>
+    <row r="20" spans="1:50" ht="15" customHeight="1">
+      <c r="C20" s="71"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="33"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+    </row>
+    <row r="21" spans="1:50" ht="15" customHeight="1">
+      <c r="C21" s="71"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="33"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+    </row>
+    <row r="22" spans="1:50" ht="16">
+      <c r="C22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="75"/>
+      <c r="M22" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="74"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+    </row>
+    <row r="23" spans="1:50" ht="16">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+    </row>
+    <row r="24" spans="1:50" ht="16">
+      <c r="A24" s="31"/>
+      <c r="C24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+    </row>
+    <row r="25" spans="1:50" ht="16">
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+    </row>
+    <row r="26" spans="1:50" ht="15" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="7">
+        <v>30</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="7">
+        <v>40</v>
+      </c>
+      <c r="M26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="67"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+    </row>
+    <row r="27" spans="1:50" ht="15" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+    </row>
+    <row r="28" spans="1:50" ht="15" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+    </row>
+    <row r="29" spans="1:50" ht="16">
+      <c r="A29" s="75"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="75"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+    </row>
+    <row r="30" spans="1:50" ht="16">
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+    </row>
+    <row r="31" spans="1:50" ht="18" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+    </row>
+    <row r="32" spans="1:50" ht="16" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+    </row>
+    <row r="33" spans="1:50" ht="15" customHeight="1">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30">
+        <v>40</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30">
+        <v>30</v>
+      </c>
+      <c r="M33" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="T33" s="67"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+    </row>
+    <row r="34" spans="1:50" ht="15" customHeight="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+    </row>
+    <row r="35" spans="1:50" ht="15" customHeight="1">
+      <c r="C35" s="71"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="69"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+    </row>
+    <row r="36" spans="1:50" ht="16" customHeight="1">
+      <c r="C36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+    </row>
+    <row r="37" spans="1:50" ht="15" customHeight="1">
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+    </row>
+    <row r="38" spans="1:50" ht="16" customHeight="1">
+      <c r="C38" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+    </row>
+    <row r="39" spans="1:50" ht="16">
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+    </row>
+    <row r="40" spans="1:50" ht="15" customHeight="1">
+      <c r="B40" s="31">
+        <v>50</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="67"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="31">
+        <v>501</v>
+      </c>
+      <c r="M40" s="70">
+        <v>1</v>
+      </c>
+      <c r="N40" s="66"/>
+      <c r="O40" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="41">
+        <v>4</v>
+      </c>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41">
+        <v>5</v>
+      </c>
+      <c r="T40" s="43"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="7">
+        <v>0</v>
+      </c>
+      <c r="W40" s="36">
+        <v>1</v>
+      </c>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="41">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="43"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="29"/>
+      <c r="AL40" s="29"/>
+      <c r="AM40" s="29"/>
+      <c r="AN40" s="29"/>
+      <c r="AQ40" s="29"/>
+      <c r="AR40" s="29"/>
+      <c r="AS40" s="29"/>
+      <c r="AT40" s="29"/>
+      <c r="AU40" s="29"/>
+      <c r="AV40" s="29"/>
+      <c r="AW40" s="29"/>
+      <c r="AX40" s="29"/>
+    </row>
+    <row r="41" spans="1:50" ht="15" customHeight="1">
+      <c r="C41" s="71"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="33"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="44"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="29"/>
+      <c r="AQ41" s="29"/>
+      <c r="AR41" s="29"/>
+      <c r="AS41" s="29"/>
+      <c r="AT41" s="29"/>
+      <c r="AU41" s="29"/>
+      <c r="AV41" s="29"/>
+      <c r="AW41" s="29"/>
+      <c r="AX41" s="29"/>
+    </row>
+    <row r="42" spans="1:50" ht="15" customHeight="1">
+      <c r="C42" s="71"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="33"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="44"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AJ42" s="29"/>
+      <c r="AK42" s="29"/>
+      <c r="AL42" s="29"/>
+      <c r="AM42" s="29"/>
+      <c r="AN42" s="29"/>
+      <c r="AQ42" s="29"/>
+      <c r="AR42" s="29"/>
+      <c r="AS42" s="29"/>
+      <c r="AT42" s="29"/>
+      <c r="AU42" s="29"/>
+      <c r="AV42" s="29"/>
+      <c r="AW42" s="29"/>
+      <c r="AX42" s="29"/>
+    </row>
+    <row r="43" spans="1:50" ht="15" customHeight="1">
+      <c r="C43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="75"/>
+      <c r="M43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="74"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="29"/>
+      <c r="AL43" s="29"/>
+      <c r="AM43" s="29"/>
+      <c r="AN43" s="29"/>
+      <c r="AQ43" s="29"/>
+      <c r="AR43" s="29"/>
+      <c r="AS43" s="29"/>
+      <c r="AT43" s="29"/>
+      <c r="AU43" s="29"/>
+      <c r="AV43" s="29"/>
+      <c r="AW43" s="29"/>
+      <c r="AX43" s="29"/>
+    </row>
+    <row r="44" spans="1:50" ht="15" customHeight="1">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="29"/>
+      <c r="AL44" s="29"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="29"/>
+      <c r="AQ44" s="29"/>
+      <c r="AR44" s="29"/>
+      <c r="AS44" s="29"/>
+      <c r="AT44" s="29"/>
+      <c r="AU44" s="29"/>
+      <c r="AV44" s="29"/>
+      <c r="AW44" s="29"/>
+      <c r="AX44" s="29"/>
+    </row>
+    <row r="45" spans="1:50" ht="15" customHeight="1">
+      <c r="C45" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="29"/>
+      <c r="AL45" s="29"/>
+      <c r="AM45" s="29"/>
+      <c r="AN45" s="29"/>
+      <c r="AQ45" s="29"/>
+      <c r="AR45" s="29"/>
+      <c r="AS45" s="29"/>
+      <c r="AT45" s="29"/>
+      <c r="AU45" s="29"/>
+      <c r="AV45" s="29"/>
+      <c r="AW45" s="29"/>
+      <c r="AX45" s="29"/>
+    </row>
+    <row r="46" spans="1:50" ht="15" customHeight="1">
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="29"/>
+      <c r="AL46" s="29"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="29"/>
+      <c r="AQ46" s="29"/>
+      <c r="AR46" s="29"/>
+      <c r="AS46" s="29"/>
+      <c r="AT46" s="29"/>
+      <c r="AU46" s="29"/>
+      <c r="AV46" s="29"/>
+      <c r="AW46" s="29"/>
+      <c r="AX46" s="29"/>
+    </row>
+    <row r="47" spans="1:50" ht="15" customHeight="1">
+      <c r="B47" s="31">
+        <v>60</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="67"/>
+      <c r="L47" s="31">
+        <v>601</v>
+      </c>
+      <c r="M47" s="70">
+        <v>2</v>
+      </c>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66">
+        <v>0</v>
+      </c>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66">
+        <v>1</v>
+      </c>
+      <c r="R47" s="66"/>
+      <c r="S47" s="66">
+        <v>3</v>
+      </c>
+      <c r="T47" s="67"/>
+      <c r="V47" s="31">
+        <v>602</v>
+      </c>
+      <c r="W47" s="70"/>
+      <c r="X47" s="66"/>
+      <c r="Y47" s="66"/>
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="66"/>
+      <c r="AC47" s="66">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="67"/>
+      <c r="AF47" s="1">
+        <v>603</v>
+      </c>
+      <c r="AG47" s="70"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="66">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="66"/>
+      <c r="AM47" s="66">
+        <v>4</v>
+      </c>
+      <c r="AN47" s="67"/>
+      <c r="AP47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="37"/>
+      <c r="AS47" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT47" s="37"/>
+      <c r="AU47" s="41">
+        <v>4</v>
+      </c>
+      <c r="AV47" s="41"/>
+      <c r="AW47" s="41">
+        <v>4</v>
+      </c>
+      <c r="AX47" s="43"/>
+    </row>
+    <row r="48" spans="1:50" ht="15" customHeight="1">
+      <c r="C48" s="71"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="69"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="69"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="68"/>
+      <c r="AC48" s="68"/>
+      <c r="AD48" s="69"/>
+      <c r="AG48" s="71"/>
+      <c r="AH48" s="68"/>
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="68"/>
+      <c r="AK48" s="68"/>
+      <c r="AL48" s="68"/>
+      <c r="AM48" s="68"/>
+      <c r="AN48" s="69"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="39"/>
+      <c r="AS48" s="39"/>
+      <c r="AT48" s="39"/>
+      <c r="AU48" s="42"/>
+      <c r="AV48" s="42"/>
+      <c r="AW48" s="42"/>
+      <c r="AX48" s="44"/>
+    </row>
+    <row r="49" spans="2:50" ht="15" customHeight="1">
+      <c r="C49" s="71"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="69"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="69"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="68"/>
+      <c r="AC49" s="68"/>
+      <c r="AD49" s="69"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="68"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="68"/>
+      <c r="AK49" s="68"/>
+      <c r="AL49" s="68"/>
+      <c r="AM49" s="68"/>
+      <c r="AN49" s="69"/>
+      <c r="AQ49" s="38"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="39"/>
+      <c r="AT49" s="39"/>
+      <c r="AU49" s="42"/>
+      <c r="AV49" s="42"/>
+      <c r="AW49" s="42"/>
+      <c r="AX49" s="44"/>
+    </row>
+    <row r="50" spans="2:50">
+      <c r="C50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T50" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="V50" s="31"/>
+      <c r="W50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD50" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL50" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM50" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN50" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ50" s="16"/>
+      <c r="AR50" s="17"/>
+      <c r="AS50" s="17"/>
+      <c r="AT50" s="17"/>
+      <c r="AU50" s="17"/>
+      <c r="AV50" s="17"/>
+      <c r="AW50" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX50" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:50">
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="29"/>
+      <c r="AL51" s="29"/>
+      <c r="AM51" s="29"/>
+      <c r="AN51" s="29"/>
+      <c r="AQ51" s="29"/>
+      <c r="AR51" s="29"/>
+      <c r="AS51" s="29"/>
+      <c r="AT51" s="29"/>
+      <c r="AU51" s="29"/>
+      <c r="AV51" s="29"/>
+      <c r="AW51" s="29"/>
+      <c r="AX51" s="29"/>
+    </row>
+    <row r="52" spans="2:50" ht="16" customHeight="1">
+      <c r="C52" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="29"/>
+      <c r="AL52" s="29"/>
+      <c r="AM52" s="29"/>
+      <c r="AN52" s="29"/>
+      <c r="AQ52" s="29"/>
+      <c r="AR52" s="29"/>
+      <c r="AS52" s="29"/>
+      <c r="AT52" s="29"/>
+      <c r="AU52" s="29"/>
+      <c r="AV52" s="29"/>
+      <c r="AW52" s="29"/>
+      <c r="AX52" s="29"/>
+    </row>
+    <row r="53" spans="2:50">
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="29"/>
+      <c r="AJ53" s="29"/>
+      <c r="AK53" s="29"/>
+      <c r="AL53" s="29"/>
+      <c r="AM53" s="29"/>
+      <c r="AN53" s="29"/>
+      <c r="AQ53" s="29"/>
+      <c r="AR53" s="29"/>
+      <c r="AS53" s="29"/>
+      <c r="AT53" s="29"/>
+      <c r="AU53" s="29"/>
+      <c r="AV53" s="29"/>
+      <c r="AW53" s="29"/>
+      <c r="AX53" s="29"/>
+    </row>
+    <row r="54" spans="2:50" ht="15" customHeight="1">
+      <c r="B54" s="31">
+        <v>99</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="67"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="29"/>
+      <c r="AJ54" s="29"/>
+      <c r="AK54" s="29"/>
+      <c r="AL54" s="29"/>
+      <c r="AM54" s="29"/>
+      <c r="AN54" s="29"/>
+      <c r="AQ54" s="29"/>
+      <c r="AR54" s="29"/>
+      <c r="AS54" s="29"/>
+      <c r="AT54" s="29"/>
+      <c r="AU54" s="29"/>
+      <c r="AV54" s="29"/>
+      <c r="AW54" s="29"/>
+      <c r="AX54" s="29"/>
+    </row>
+    <row r="55" spans="2:50" ht="15" customHeight="1">
+      <c r="C55" s="71"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="69"/>
+    </row>
+    <row r="56" spans="2:50" ht="15" customHeight="1">
+      <c r="C56" s="71"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
+    </row>
+    <row r="57" spans="2:50" ht="15" customHeight="1">
+      <c r="C57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="59" spans="2:50" ht="16" customHeight="1">
+      <c r="C59" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="61" spans="2:50" ht="15" customHeight="1">
+      <c r="B61" s="31">
+        <v>0</v>
+      </c>
+      <c r="C61" s="36">
+        <v>1</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="37"/>
+      <c r="G61" s="41">
+        <v>4</v>
+      </c>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41">
+        <v>4</v>
+      </c>
+      <c r="J61" s="43"/>
+    </row>
+    <row r="62" spans="2:50" ht="15" customHeight="1">
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="44"/>
+    </row>
+    <row r="63" spans="2:50" ht="15" customHeight="1">
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="44"/>
+    </row>
+    <row r="64" spans="2:50">
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Z21"/>
+    <mergeCell ref="AA19:AB21"/>
+    <mergeCell ref="AC19:AD21"/>
+    <mergeCell ref="W40:X42"/>
+    <mergeCell ref="Y40:Z42"/>
+    <mergeCell ref="AA40:AB42"/>
+    <mergeCell ref="AC40:AD42"/>
+    <mergeCell ref="AQ47:AR49"/>
+    <mergeCell ref="AS47:AT49"/>
+    <mergeCell ref="AU47:AV49"/>
+    <mergeCell ref="AW47:AX49"/>
+    <mergeCell ref="AA47:AB49"/>
+    <mergeCell ref="AC47:AD49"/>
+    <mergeCell ref="AG47:AH49"/>
+    <mergeCell ref="AI47:AJ49"/>
+    <mergeCell ref="AK47:AL49"/>
+    <mergeCell ref="AM47:AN49"/>
+    <mergeCell ref="M47:N49"/>
+    <mergeCell ref="O47:P49"/>
+    <mergeCell ref="Q47:R49"/>
+    <mergeCell ref="S47:T49"/>
+    <mergeCell ref="W47:X49"/>
+    <mergeCell ref="Y47:Z49"/>
+    <mergeCell ref="S26:T28"/>
+    <mergeCell ref="M33:N35"/>
+    <mergeCell ref="O33:P35"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="S33:T35"/>
+    <mergeCell ref="C40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:H42"/>
+    <mergeCell ref="I40:J42"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="M26:N28"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C61:D63"/>
+    <mergeCell ref="E61:F63"/>
+    <mergeCell ref="G61:H63"/>
+    <mergeCell ref="I61:J63"/>
+    <mergeCell ref="C12:D14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C54:D56"/>
+    <mergeCell ref="E54:F56"/>
+    <mergeCell ref="G54:H56"/>
+    <mergeCell ref="I54:J56"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="S19:T21"/>
+    <mergeCell ref="C47:D49"/>
+    <mergeCell ref="E47:F49"/>
+    <mergeCell ref="G47:H49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="M40:N42"/>
+    <mergeCell ref="O40:P42"/>
+    <mergeCell ref="Q40:R42"/>
+    <mergeCell ref="S40:T42"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="G33:H35"/>
+    <mergeCell ref="I33:J35"/>
+    <mergeCell ref="M19:N21"/>
+    <mergeCell ref="O19:P21"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="Q26:R28"/>
+    <mergeCell ref="C19:D21"/>
+    <mergeCell ref="E19:F21"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="C26:D28"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="G26:H28"/>
+    <mergeCell ref="I26:J28"/>
+    <mergeCell ref="C33:D35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>